--- a/ExchangeActiveSync/Docs/MS-ASHTTP/MS-ASHTTP_RequirementSpecification.xlsx
+++ b/ExchangeActiveSync/Docs/MS-ASHTTP/MS-ASHTTP_RequirementSpecification.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482B0E1D-0F2C-417A-908B-EB577F0E873A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAE960A-DD17-4521-B4D2-196851D020CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$495</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$503</definedName>
     <definedName name="ExtensionList">Requirements!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Requirements!$A:$A,Requirements!$19:$19</definedName>
     <definedName name="ScopeList">Requirements!#REF!</definedName>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3409" uniqueCount="1087">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3465" uniqueCount="1107">
   <si>
     <t>Req ID</t>
   </si>
@@ -3623,9 +3623,6 @@
     <t xml:space="preserve">[In X-BEServer]This header is optional. </t>
   </si>
   <si>
-    <t>[In X-BEServer]The X-MS-ASThrottle header specifies the condition under which the server MAY&lt;4&gt; throttle the client device.</t>
-  </si>
-  <si>
     <t>[In Appendix A: Product Behavior] &lt;5&gt; Section 3.1.3:  Windows Communication Apps only support protocol versions 12.1 and 14.0.</t>
   </si>
   <si>
@@ -3660,6 +3657,69 @@
   </si>
   <si>
     <t>[In Appendix A: Product Behavior] Implementation does return the MS-ASProtocolVersions value of 16.1. (Exchange 2016 Preview and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>MS-ASHTTP_R9053</t>
+  </si>
+  <si>
+    <t>MS-ASHTTP_R9054</t>
+  </si>
+  <si>
+    <t>MS-ASHTTP_R9055</t>
+  </si>
+  <si>
+    <t>MS-ASHTTP_R9056</t>
+  </si>
+  <si>
+    <t>[In X-MS-ASThrottle]The X-MS-ASThrottle header specifies the condition under which the server MAY&lt;4&gt; throttle the client device.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In X-MS-ASThrottle]This header is optional. </t>
+  </si>
+  <si>
+    <t>2.2.2.1.2.14</t>
+  </si>
+  <si>
+    <t>[In X-BEServer]The X-BEServer header contains the name of the server that processed the request.</t>
+  </si>
+  <si>
+    <t>2.2.2.1.2.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In X-FEServer]This header is optional. </t>
+  </si>
+  <si>
+    <t>[In X-FEServer]The X-FEServer header contains the name of the server(s) that routed the request.</t>
+  </si>
+  <si>
+    <t>2.2.2.1.2.16</t>
+  </si>
+  <si>
+    <t>MS-ASHTTP_R9057</t>
+  </si>
+  <si>
+    <t>MS-ASHTTP_R9058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In request-id]This header is optional. </t>
+  </si>
+  <si>
+    <t>[In request-id]The request-id header contains a server-generated identifier for the request.</t>
+  </si>
+  <si>
+    <t>MS-ASHTTP_R9044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In Set-Cookie]Multiple instances of this header can be returned with a different cookie name in each instance of the header. </t>
+  </si>
+  <si>
+    <t>MS-ASHTTP_R2371</t>
+  </si>
+  <si>
+    <t>2.2.3.1.2</t>
+  </si>
+  <si>
+    <t>[In Request headers]The authorization header is required. For more information on the authorization header requirements, see section 2.2.1.1.2.2.</t>
   </si>
 </sst>
 </file>
@@ -3979,6 +4039,37 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4003,37 +4094,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4712,8 +4772,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I495" tableType="xml" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55" connectionId="1">
-  <autoFilter ref="A19:I495" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I503" tableType="xml" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55" connectionId="1">
+  <autoFilter ref="A19:I503" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="54">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
@@ -5081,7 +5141,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L497"/>
+  <dimension ref="A1:L505"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -5139,128 +5199,128 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -5273,12 +5333,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -5291,12 +5351,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -5309,12 +5369,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -5327,60 +5387,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -14019,10 +14079,10 @@
       <c r="A364" s="22" t="s">
         <v>913</v>
       </c>
-      <c r="B364" s="35" t="s">
+      <c r="B364" s="24" t="s">
         <v>850</v>
       </c>
-      <c r="C364" s="36" t="s">
+      <c r="C364" s="20" t="s">
         <v>853</v>
       </c>
       <c r="D364" s="34"/>
@@ -14040,17 +14100,17 @@
       </c>
       <c r="I364" s="36"/>
     </row>
-    <row r="365" spans="1:9">
+    <row r="365" spans="1:9" ht="30">
       <c r="A365" s="22" t="s">
-        <v>914</v>
-      </c>
-      <c r="B365" s="35" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B365" s="39" t="s">
         <v>850</v>
       </c>
       <c r="C365" s="20" t="s">
-        <v>854</v>
-      </c>
-      <c r="D365" s="34"/>
+        <v>1103</v>
+      </c>
+      <c r="D365" s="38"/>
       <c r="E365" s="34" t="s">
         <v>19</v>
       </c>
@@ -14058,24 +14118,24 @@
         <v>6</v>
       </c>
       <c r="G365" s="34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H365" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="I365" s="36"/>
+      <c r="I365" s="40"/>
     </row>
     <row r="366" spans="1:9">
       <c r="A366" s="22" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B366" s="24" t="s">
-        <v>1072</v>
+        <v>914</v>
+      </c>
+      <c r="B366" s="35" t="s">
+        <v>850</v>
       </c>
       <c r="C366" s="20" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D366" s="38"/>
+        <v>854</v>
+      </c>
+      <c r="D366" s="34"/>
       <c r="E366" s="34" t="s">
         <v>19</v>
       </c>
@@ -14088,17 +14148,17 @@
       <c r="H366" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="I366" s="40"/>
-    </row>
-    <row r="367" spans="1:9" ht="30">
+      <c r="I366" s="36"/>
+    </row>
+    <row r="367" spans="1:9">
       <c r="A367" s="22" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B367" s="39" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B367" s="24" t="s">
         <v>1072</v>
       </c>
       <c r="C367" s="20" t="s">
-        <v>1074</v>
+        <v>1091</v>
       </c>
       <c r="D367" s="38"/>
       <c r="E367" s="34" t="s">
@@ -14115,247 +14175,247 @@
       </c>
       <c r="I367" s="40"/>
     </row>
-    <row r="368" spans="1:9">
-      <c r="A368" s="30" t="s">
+    <row r="368" spans="1:9" ht="30">
+      <c r="A368" s="22" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B368" s="24" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C368" s="20" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D368" s="38"/>
+      <c r="E368" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F368" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G368" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H368" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I368" s="40"/>
+    </row>
+    <row r="369" spans="1:9">
+      <c r="A369" s="22" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B369" s="24" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C369" s="20" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D369" s="38"/>
+      <c r="E369" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F369" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G369" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H369" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I369" s="40"/>
+    </row>
+    <row r="370" spans="1:9" ht="30">
+      <c r="A370" s="22" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B370" s="24" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C370" s="20" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D370" s="38"/>
+      <c r="E370" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F370" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G370" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H370" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I370" s="40"/>
+    </row>
+    <row r="371" spans="1:9">
+      <c r="A371" s="22" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B371" s="24" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C371" s="20" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D371" s="38"/>
+      <c r="E371" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F371" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G371" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H371" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I371" s="40"/>
+    </row>
+    <row r="372" spans="1:9" ht="30">
+      <c r="A372" s="22" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B372" s="24" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C372" s="20" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D372" s="38"/>
+      <c r="E372" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F372" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G372" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H372" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I372" s="40"/>
+    </row>
+    <row r="373" spans="1:9">
+      <c r="A373" s="22" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B373" s="24" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C373" s="20" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D373" s="38"/>
+      <c r="E373" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F373" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G373" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H373" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I373" s="40"/>
+    </row>
+    <row r="374" spans="1:9">
+      <c r="A374" s="22" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B374" s="24" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C374" s="20" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D374" s="38"/>
+      <c r="E374" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F374" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G374" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H374" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I374" s="40"/>
+    </row>
+    <row r="375" spans="1:9">
+      <c r="A375" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="B368" s="31" t="s">
+      <c r="B375" s="31" t="s">
         <v>462</v>
       </c>
-      <c r="C368" s="32" t="s">
+      <c r="C375" s="32" t="s">
         <v>752</v>
-      </c>
-      <c r="D368" s="30"/>
-      <c r="E368" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F368" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G368" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H368" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I368" s="32"/>
-    </row>
-    <row r="369" spans="1:9" ht="30">
-      <c r="A369" s="30" t="s">
-        <v>332</v>
-      </c>
-      <c r="B369" s="31" t="s">
-        <v>462</v>
-      </c>
-      <c r="C369" s="32" t="s">
-        <v>753</v>
-      </c>
-      <c r="D369" s="30"/>
-      <c r="E369" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F369" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G369" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H369" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I369" s="32"/>
-    </row>
-    <row r="370" spans="1:9">
-      <c r="A370" s="30" t="s">
-        <v>333</v>
-      </c>
-      <c r="B370" s="31" t="s">
-        <v>462</v>
-      </c>
-      <c r="C370" s="32" t="s">
-        <v>754</v>
-      </c>
-      <c r="D370" s="30"/>
-      <c r="E370" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F370" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G370" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H370" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I370" s="32"/>
-    </row>
-    <row r="371" spans="1:9" ht="30">
-      <c r="A371" s="30" t="s">
-        <v>334</v>
-      </c>
-      <c r="B371" s="31" t="s">
-        <v>462</v>
-      </c>
-      <c r="C371" s="32" t="s">
-        <v>755</v>
-      </c>
-      <c r="D371" s="30"/>
-      <c r="E371" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F371" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G371" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H371" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I371" s="32"/>
-    </row>
-    <row r="372" spans="1:9" ht="30">
-      <c r="A372" s="30" t="s">
-        <v>335</v>
-      </c>
-      <c r="B372" s="31" t="s">
-        <v>462</v>
-      </c>
-      <c r="C372" s="32" t="s">
-        <v>756</v>
-      </c>
-      <c r="D372" s="30"/>
-      <c r="E372" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F372" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G372" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H372" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I372" s="32"/>
-    </row>
-    <row r="373" spans="1:9" ht="30">
-      <c r="A373" s="30" t="s">
-        <v>336</v>
-      </c>
-      <c r="B373" s="31" t="s">
-        <v>462</v>
-      </c>
-      <c r="C373" s="32" t="s">
-        <v>757</v>
-      </c>
-      <c r="D373" s="30"/>
-      <c r="E373" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F373" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G373" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H373" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I373" s="32"/>
-    </row>
-    <row r="374" spans="1:9" ht="30">
-      <c r="A374" s="30" t="s">
-        <v>337</v>
-      </c>
-      <c r="B374" s="31" t="s">
-        <v>462</v>
-      </c>
-      <c r="C374" s="32" t="s">
-        <v>758</v>
-      </c>
-      <c r="D374" s="30"/>
-      <c r="E374" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F374" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G374" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H374" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I374" s="32"/>
-    </row>
-    <row r="375" spans="1:9" ht="45">
-      <c r="A375" s="30" t="s">
-        <v>338</v>
-      </c>
-      <c r="B375" s="31" t="s">
-        <v>463</v>
-      </c>
-      <c r="C375" s="32" t="s">
-        <v>759</v>
       </c>
       <c r="D375" s="30"/>
       <c r="E375" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F375" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G375" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H375" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I375" s="32"/>
     </row>
     <row r="376" spans="1:9" ht="30">
       <c r="A376" s="30" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B376" s="31" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C376" s="32" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="D376" s="30"/>
       <c r="E376" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F376" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G376" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H376" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I376" s="32"/>
     </row>
-    <row r="377" spans="1:9" ht="45">
+    <row r="377" spans="1:9">
       <c r="A377" s="30" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B377" s="31" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C377" s="32" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="D377" s="30"/>
       <c r="E377" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F377" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G377" s="30" t="s">
         <v>15</v>
@@ -14365,72 +14425,72 @@
       </c>
       <c r="I377" s="32"/>
     </row>
-    <row r="378" spans="1:9" ht="45">
+    <row r="378" spans="1:9" ht="30">
       <c r="A378" s="30" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B378" s="31" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C378" s="32" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D378" s="30"/>
       <c r="E378" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F378" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G378" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H378" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I378" s="32"/>
     </row>
     <row r="379" spans="1:9" ht="30">
       <c r="A379" s="30" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B379" s="31" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C379" s="32" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="D379" s="30"/>
       <c r="E379" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F379" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G379" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H379" s="30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I379" s="32"/>
     </row>
-    <row r="380" spans="1:9">
+    <row r="380" spans="1:9" ht="30">
       <c r="A380" s="30" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B380" s="31" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C380" s="32" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="D380" s="30"/>
       <c r="E380" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F380" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G380" s="30" t="s">
         <v>15</v>
@@ -14440,25 +14500,25 @@
       </c>
       <c r="I380" s="32"/>
     </row>
-    <row r="381" spans="1:9">
+    <row r="381" spans="1:9" ht="30">
       <c r="A381" s="30" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B381" s="31" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C381" s="32" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="D381" s="30"/>
       <c r="E381" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F381" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G381" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H381" s="30" t="s">
         <v>18</v>
@@ -14467,23 +14527,23 @@
     </row>
     <row r="382" spans="1:9" ht="45">
       <c r="A382" s="30" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B382" s="31" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C382" s="32" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="D382" s="30"/>
       <c r="E382" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F382" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G382" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H382" s="30" t="s">
         <v>18</v>
@@ -14492,213 +14552,213 @@
     </row>
     <row r="383" spans="1:9" ht="30">
       <c r="A383" s="30" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B383" s="31" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C383" s="32" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="D383" s="30"/>
       <c r="E383" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F383" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G383" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H383" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I383" s="32"/>
     </row>
-    <row r="384" spans="1:9" ht="30">
+    <row r="384" spans="1:9" ht="45">
       <c r="A384" s="30" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B384" s="31" t="s">
-        <v>32</v>
+        <v>464</v>
       </c>
       <c r="C384" s="32" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="D384" s="30"/>
       <c r="E384" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F384" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G384" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H384" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I384" s="32"/>
     </row>
-    <row r="385" spans="1:9" ht="30">
+    <row r="385" spans="1:9" ht="45">
       <c r="A385" s="30" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B385" s="31" t="s">
-        <v>32</v>
+        <v>465</v>
       </c>
       <c r="C385" s="32" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="D385" s="30"/>
       <c r="E385" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F385" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G385" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H385" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I385" s="32"/>
     </row>
-    <row r="386" spans="1:9" ht="60">
+    <row r="386" spans="1:9" ht="30">
       <c r="A386" s="30" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B386" s="31" t="s">
-        <v>32</v>
+        <v>465</v>
       </c>
       <c r="C386" s="32" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="D386" s="30"/>
       <c r="E386" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F386" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G386" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H386" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I386" s="32"/>
     </row>
-    <row r="387" spans="1:9" ht="30">
+    <row r="387" spans="1:9">
       <c r="A387" s="30" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B387" s="31" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C387" s="32" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="D387" s="30"/>
       <c r="E387" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F387" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G387" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H387" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I387" s="32"/>
     </row>
-    <row r="388" spans="1:9" ht="45">
+    <row r="388" spans="1:9">
       <c r="A388" s="30" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B388" s="31" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C388" s="32" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="D388" s="30"/>
       <c r="E388" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F388" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G388" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H388" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I388" s="32"/>
     </row>
-    <row r="389" spans="1:9" ht="30">
-      <c r="A389" s="30" t="s">
-        <v>352</v>
-      </c>
-      <c r="B389" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="C389" s="32" t="s">
-        <v>773</v>
+    <row r="389" spans="1:9" ht="45">
+      <c r="A389" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="B389" s="24" t="s">
+        <v>465</v>
+      </c>
+      <c r="C389" s="20" t="s">
+        <v>766</v>
       </c>
       <c r="D389" s="30"/>
       <c r="E389" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F389" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G389" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H389" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I389" s="32"/>
     </row>
-    <row r="390" spans="1:9" ht="90">
-      <c r="A390" s="30" t="s">
-        <v>353</v>
-      </c>
-      <c r="B390" s="31" t="s">
-        <v>468</v>
+    <row r="390" spans="1:9" ht="30">
+      <c r="A390" s="22" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B390" s="24" t="s">
+        <v>1105</v>
       </c>
       <c r="C390" s="20" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D390" s="30"/>
+        <v>1106</v>
+      </c>
+      <c r="D390" s="38"/>
       <c r="E390" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F390" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G390" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H390" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="I390" s="32"/>
+      <c r="I390" s="40"/>
     </row>
     <row r="391" spans="1:9" ht="30">
       <c r="A391" s="30" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B391" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="C391" s="20" t="s">
-        <v>1039</v>
+        <v>466</v>
+      </c>
+      <c r="C391" s="32" t="s">
+        <v>767</v>
       </c>
       <c r="D391" s="30"/>
       <c r="E391" s="30" t="s">
@@ -14708,54 +14768,54 @@
         <v>6</v>
       </c>
       <c r="G391" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H391" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I391" s="32"/>
     </row>
-    <row r="392" spans="1:9" ht="45">
-      <c r="A392" s="22" t="s">
-        <v>915</v>
+    <row r="392" spans="1:9" ht="30">
+      <c r="A392" s="30" t="s">
+        <v>347</v>
       </c>
       <c r="B392" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="C392" s="36" t="s">
-        <v>833</v>
-      </c>
-      <c r="D392" s="34"/>
-      <c r="E392" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F392" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C392" s="32" t="s">
+        <v>768</v>
+      </c>
+      <c r="D392" s="30"/>
+      <c r="E392" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F392" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G392" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="H392" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="I392" s="36"/>
+      <c r="G392" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H392" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I392" s="32"/>
     </row>
     <row r="393" spans="1:9" ht="30">
       <c r="A393" s="30" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B393" s="31" t="s">
-        <v>469</v>
+        <v>32</v>
       </c>
       <c r="C393" s="32" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="D393" s="30"/>
       <c r="E393" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F393" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G393" s="30" t="s">
         <v>15</v>
@@ -14765,15 +14825,15 @@
       </c>
       <c r="I393" s="32"/>
     </row>
-    <row r="394" spans="1:9" ht="30">
+    <row r="394" spans="1:9" ht="60">
       <c r="A394" s="30" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B394" s="31" t="s">
-        <v>470</v>
+        <v>32</v>
       </c>
       <c r="C394" s="32" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="D394" s="30"/>
       <c r="E394" s="30" t="s">
@@ -14783,22 +14843,22 @@
         <v>6</v>
       </c>
       <c r="G394" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H394" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I394" s="32"/>
     </row>
-    <row r="395" spans="1:9" ht="45">
+    <row r="395" spans="1:9" ht="30">
       <c r="A395" s="30" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B395" s="31" t="s">
-        <v>470</v>
-      </c>
-      <c r="C395" s="20" t="s">
-        <v>1040</v>
+        <v>467</v>
+      </c>
+      <c r="C395" s="32" t="s">
+        <v>771</v>
       </c>
       <c r="D395" s="30"/>
       <c r="E395" s="30" t="s">
@@ -14808,82 +14868,82 @@
         <v>6</v>
       </c>
       <c r="G395" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H395" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I395" s="32"/>
     </row>
-    <row r="396" spans="1:9">
-      <c r="A396" s="22" t="s">
-        <v>1041</v>
+    <row r="396" spans="1:9" ht="45">
+      <c r="A396" s="30" t="s">
+        <v>351</v>
       </c>
       <c r="B396" s="31" t="s">
-        <v>470</v>
-      </c>
-      <c r="C396" s="20" t="s">
-        <v>1042</v>
+        <v>468</v>
+      </c>
+      <c r="C396" s="32" t="s">
+        <v>772</v>
       </c>
       <c r="D396" s="30"/>
       <c r="E396" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F396" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G396" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H396" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I396" s="32"/>
     </row>
-    <row r="397" spans="1:9" ht="45">
+    <row r="397" spans="1:9" ht="30">
       <c r="A397" s="30" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B397" s="31" t="s">
-        <v>471</v>
-      </c>
-      <c r="C397" s="20" t="s">
-        <v>1043</v>
+        <v>468</v>
+      </c>
+      <c r="C397" s="32" t="s">
+        <v>773</v>
       </c>
       <c r="D397" s="30"/>
       <c r="E397" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F397" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G397" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H397" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I397" s="32"/>
     </row>
-    <row r="398" spans="1:9" ht="30">
+    <row r="398" spans="1:9" ht="90">
       <c r="A398" s="30" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B398" s="31" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C398" s="20" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="D398" s="30"/>
       <c r="E398" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F398" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G398" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H398" s="30" t="s">
         <v>18</v>
@@ -14892,145 +14952,145 @@
     </row>
     <row r="399" spans="1:9" ht="30">
       <c r="A399" s="30" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B399" s="31" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C399" s="20" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="D399" s="30"/>
       <c r="E399" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F399" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G399" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H399" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I399" s="32"/>
     </row>
-    <row r="400" spans="1:9" ht="30">
-      <c r="A400" s="30" t="s">
-        <v>361</v>
+    <row r="400" spans="1:9" ht="45">
+      <c r="A400" s="22" t="s">
+        <v>915</v>
       </c>
       <c r="B400" s="31" t="s">
-        <v>472</v>
-      </c>
-      <c r="C400" s="32" t="s">
-        <v>776</v>
-      </c>
-      <c r="D400" s="30"/>
-      <c r="E400" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F400" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G400" s="30" t="s">
+        <v>468</v>
+      </c>
+      <c r="C400" s="36" t="s">
+        <v>833</v>
+      </c>
+      <c r="D400" s="34"/>
+      <c r="E400" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F400" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G400" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="H400" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I400" s="32"/>
+      <c r="H400" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I400" s="36"/>
     </row>
     <row r="401" spans="1:9" ht="30">
       <c r="A401" s="30" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B401" s="31" t="s">
-        <v>33</v>
+        <v>469</v>
       </c>
       <c r="C401" s="32" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="D401" s="30"/>
       <c r="E401" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F401" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G401" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H401" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I401" s="32"/>
     </row>
     <row r="402" spans="1:9" ht="30">
       <c r="A402" s="30" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B402" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C402" s="20" t="s">
-        <v>1046</v>
+        <v>470</v>
+      </c>
+      <c r="C402" s="32" t="s">
+        <v>775</v>
       </c>
       <c r="D402" s="30"/>
       <c r="E402" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F402" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G402" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H402" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I402" s="32"/>
     </row>
-    <row r="403" spans="1:9" ht="30">
+    <row r="403" spans="1:9" ht="45">
       <c r="A403" s="30" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B403" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C403" s="32" t="s">
-        <v>778</v>
+        <v>470</v>
+      </c>
+      <c r="C403" s="20" t="s">
+        <v>1040</v>
       </c>
       <c r="D403" s="30"/>
       <c r="E403" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F403" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G403" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H403" s="30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I403" s="32"/>
     </row>
-    <row r="404" spans="1:9" ht="60">
-      <c r="A404" s="30" t="s">
-        <v>365</v>
+    <row r="404" spans="1:9">
+      <c r="A404" s="22" t="s">
+        <v>1041</v>
       </c>
       <c r="B404" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C404" s="32" t="s">
-        <v>779</v>
+        <v>470</v>
+      </c>
+      <c r="C404" s="20" t="s">
+        <v>1042</v>
       </c>
       <c r="D404" s="30"/>
       <c r="E404" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F404" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G404" s="30" t="s">
         <v>15</v>
@@ -15040,40 +15100,40 @@
       </c>
       <c r="I404" s="32"/>
     </row>
-    <row r="405" spans="1:9" ht="30">
+    <row r="405" spans="1:9" ht="45">
       <c r="A405" s="30" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B405" s="31" t="s">
-        <v>473</v>
-      </c>
-      <c r="C405" s="32" t="s">
-        <v>780</v>
+        <v>471</v>
+      </c>
+      <c r="C405" s="20" t="s">
+        <v>1043</v>
       </c>
       <c r="D405" s="30"/>
       <c r="E405" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F405" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G405" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H405" s="30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I405" s="32"/>
     </row>
-    <row r="406" spans="1:9" ht="45">
+    <row r="406" spans="1:9" ht="30">
       <c r="A406" s="30" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B406" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C406" s="20" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D406" s="30"/>
       <c r="E406" s="30" t="s">
@@ -15090,15 +15150,15 @@
       </c>
       <c r="I406" s="32"/>
     </row>
-    <row r="407" spans="1:9" ht="45">
+    <row r="407" spans="1:9" ht="30">
       <c r="A407" s="30" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B407" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C407" s="20" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D407" s="30"/>
       <c r="E407" s="30" t="s">
@@ -15115,175 +15175,175 @@
       </c>
       <c r="I407" s="32"/>
     </row>
-    <row r="408" spans="1:9" ht="45">
-      <c r="A408" s="22" t="s">
-        <v>916</v>
+    <row r="408" spans="1:9" ht="30">
+      <c r="A408" s="30" t="s">
+        <v>361</v>
       </c>
       <c r="B408" s="31" t="s">
+        <v>472</v>
+      </c>
+      <c r="C408" s="32" t="s">
+        <v>776</v>
+      </c>
+      <c r="D408" s="30"/>
+      <c r="E408" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F408" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G408" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H408" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I408" s="32"/>
+    </row>
+    <row r="409" spans="1:9" ht="30">
+      <c r="A409" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="B409" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C409" s="32" t="s">
+        <v>777</v>
+      </c>
+      <c r="D409" s="30"/>
+      <c r="E409" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F409" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G409" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H409" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I409" s="32"/>
+    </row>
+    <row r="410" spans="1:9" ht="30">
+      <c r="A410" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="B410" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C410" s="20" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D410" s="30"/>
+      <c r="E410" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F410" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G410" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H410" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I410" s="32"/>
+    </row>
+    <row r="411" spans="1:9" ht="30">
+      <c r="A411" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="B411" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C411" s="32" t="s">
+        <v>778</v>
+      </c>
+      <c r="D411" s="30"/>
+      <c r="E411" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F411" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G411" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H411" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I411" s="32"/>
+    </row>
+    <row r="412" spans="1:9" ht="60">
+      <c r="A412" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="B412" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C412" s="32" t="s">
+        <v>779</v>
+      </c>
+      <c r="D412" s="30"/>
+      <c r="E412" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F412" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G412" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H412" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I412" s="32"/>
+    </row>
+    <row r="413" spans="1:9" ht="30">
+      <c r="A413" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="B413" s="31" t="s">
+        <v>473</v>
+      </c>
+      <c r="C413" s="32" t="s">
+        <v>780</v>
+      </c>
+      <c r="D413" s="30"/>
+      <c r="E413" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F413" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G413" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H413" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I413" s="32"/>
+    </row>
+    <row r="414" spans="1:9" ht="45">
+      <c r="A414" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="B414" s="31" t="s">
         <v>474</v>
       </c>
-      <c r="C408" s="36" t="s">
-        <v>856</v>
-      </c>
-      <c r="D408" s="34"/>
-      <c r="E408" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F408" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G408" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H408" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I408" s="36"/>
-    </row>
-    <row r="409" spans="1:9" ht="60">
-      <c r="A409" s="22" t="s">
-        <v>917</v>
-      </c>
-      <c r="B409" s="31" t="s">
-        <v>474</v>
-      </c>
-      <c r="C409" s="20" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D409" s="34"/>
-      <c r="E409" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F409" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G409" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H409" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I409" s="36"/>
-    </row>
-    <row r="410" spans="1:9" ht="45">
-      <c r="A410" s="22" t="s">
-        <v>918</v>
-      </c>
-      <c r="B410" s="31" t="s">
-        <v>474</v>
-      </c>
-      <c r="C410" s="20" t="s">
-        <v>857</v>
-      </c>
-      <c r="D410" s="34"/>
-      <c r="E410" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F410" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G410" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H410" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I410" s="36"/>
-    </row>
-    <row r="411" spans="1:9" ht="30">
-      <c r="A411" s="22" t="s">
-        <v>919</v>
-      </c>
-      <c r="B411" s="31" t="s">
-        <v>474</v>
-      </c>
-      <c r="C411" s="20" t="s">
-        <v>879</v>
-      </c>
-      <c r="D411" s="34"/>
-      <c r="E411" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F411" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G411" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H411" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I411" s="36"/>
-    </row>
-    <row r="412" spans="1:9" ht="30">
-      <c r="A412" s="22" t="s">
-        <v>920</v>
-      </c>
-      <c r="B412" s="31" t="s">
-        <v>475</v>
-      </c>
-      <c r="C412" s="20" t="s">
-        <v>858</v>
-      </c>
-      <c r="D412" s="22"/>
-      <c r="E412" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F412" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G412" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H412" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I412" s="20"/>
-    </row>
-    <row r="413" spans="1:9" ht="30">
-      <c r="A413" s="22" t="s">
-        <v>921</v>
-      </c>
-      <c r="B413" s="31" t="s">
-        <v>475</v>
-      </c>
-      <c r="C413" s="20" t="s">
-        <v>859</v>
-      </c>
-      <c r="D413" s="22"/>
-      <c r="E413" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F413" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G413" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H413" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I413" s="20"/>
-    </row>
-    <row r="414" spans="1:9" ht="30">
-      <c r="A414" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="B414" s="31" t="s">
-        <v>475</v>
-      </c>
       <c r="C414" s="20" t="s">
-        <v>860</v>
+        <v>1047</v>
       </c>
       <c r="D414" s="30"/>
       <c r="E414" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F414" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G414" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H414" s="30" t="s">
         <v>18</v>
@@ -15292,13 +15352,13 @@
     </row>
     <row r="415" spans="1:9" ht="45">
       <c r="A415" s="30" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B415" s="31" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C415" s="20" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="D415" s="30"/>
       <c r="E415" s="30" t="s">
@@ -15316,174 +15376,174 @@
       <c r="I415" s="32"/>
     </row>
     <row r="416" spans="1:9" ht="45">
-      <c r="A416" s="30" t="s">
-        <v>371</v>
+      <c r="A416" s="22" t="s">
+        <v>916</v>
       </c>
       <c r="B416" s="31" t="s">
-        <v>476</v>
-      </c>
-      <c r="C416" s="20" t="s">
-        <v>1051</v>
-      </c>
-      <c r="D416" s="30"/>
-      <c r="E416" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F416" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G416" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H416" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I416" s="32"/>
-    </row>
-    <row r="417" spans="1:9" ht="45">
-      <c r="A417" s="30" t="s">
-        <v>372</v>
+        <v>474</v>
+      </c>
+      <c r="C416" s="36" t="s">
+        <v>856</v>
+      </c>
+      <c r="D416" s="34"/>
+      <c r="E416" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F416" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G416" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H416" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I416" s="36"/>
+    </row>
+    <row r="417" spans="1:9" ht="60">
+      <c r="A417" s="22" t="s">
+        <v>917</v>
       </c>
       <c r="B417" s="31" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C417" s="20" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D417" s="30"/>
-      <c r="E417" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F417" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G417" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H417" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I417" s="32"/>
+        <v>1049</v>
+      </c>
+      <c r="D417" s="34"/>
+      <c r="E417" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F417" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G417" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H417" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I417" s="36"/>
     </row>
     <row r="418" spans="1:9" ht="45">
-      <c r="A418" s="30" t="s">
-        <v>373</v>
+      <c r="A418" s="22" t="s">
+        <v>918</v>
       </c>
       <c r="B418" s="31" t="s">
-        <v>477</v>
-      </c>
-      <c r="C418" s="32" t="s">
-        <v>781</v>
-      </c>
-      <c r="D418" s="30"/>
-      <c r="E418" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F418" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G418" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H418" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I418" s="32"/>
-    </row>
-    <row r="419" spans="1:9" ht="45">
-      <c r="A419" s="30" t="s">
-        <v>374</v>
+        <v>474</v>
+      </c>
+      <c r="C418" s="20" t="s">
+        <v>857</v>
+      </c>
+      <c r="D418" s="34"/>
+      <c r="E418" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F418" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G418" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H418" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I418" s="36"/>
+    </row>
+    <row r="419" spans="1:9" ht="30">
+      <c r="A419" s="22" t="s">
+        <v>919</v>
       </c>
       <c r="B419" s="31" t="s">
-        <v>477</v>
-      </c>
-      <c r="C419" s="32" t="s">
-        <v>782</v>
-      </c>
-      <c r="D419" s="30"/>
-      <c r="E419" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F419" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G419" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H419" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I419" s="32"/>
-    </row>
-    <row r="420" spans="1:9" ht="195">
-      <c r="A420" s="30" t="s">
-        <v>375</v>
+        <v>474</v>
+      </c>
+      <c r="C419" s="20" t="s">
+        <v>879</v>
+      </c>
+      <c r="D419" s="34"/>
+      <c r="E419" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F419" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G419" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H419" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I419" s="36"/>
+    </row>
+    <row r="420" spans="1:9" ht="30">
+      <c r="A420" s="22" t="s">
+        <v>920</v>
       </c>
       <c r="B420" s="31" t="s">
-        <v>477</v>
-      </c>
-      <c r="C420" s="32" t="s">
-        <v>783</v>
-      </c>
-      <c r="D420" s="30"/>
-      <c r="E420" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F420" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G420" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="C420" s="20" t="s">
+        <v>858</v>
+      </c>
+      <c r="D420" s="22"/>
+      <c r="E420" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F420" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G420" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H420" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I420" s="20"/>
+    </row>
+    <row r="421" spans="1:9" ht="30">
+      <c r="A421" s="22" t="s">
+        <v>921</v>
+      </c>
+      <c r="B421" s="31" t="s">
+        <v>475</v>
+      </c>
+      <c r="C421" s="20" t="s">
+        <v>859</v>
+      </c>
+      <c r="D421" s="22"/>
+      <c r="E421" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F421" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G421" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H420" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I420" s="32"/>
-    </row>
-    <row r="421" spans="1:9" ht="30">
-      <c r="A421" s="30" t="s">
-        <v>376</v>
-      </c>
-      <c r="B421" s="31" t="s">
-        <v>477</v>
-      </c>
-      <c r="C421" s="32" t="s">
-        <v>784</v>
-      </c>
-      <c r="D421" s="30"/>
-      <c r="E421" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F421" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G421" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H421" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I421" s="32"/>
-    </row>
-    <row r="422" spans="1:9" ht="45">
+      <c r="H421" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I421" s="20"/>
+    </row>
+    <row r="422" spans="1:9" ht="30">
       <c r="A422" s="30" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B422" s="31" t="s">
-        <v>477</v>
-      </c>
-      <c r="C422" s="32" t="s">
-        <v>785</v>
+        <v>475</v>
+      </c>
+      <c r="C422" s="20" t="s">
+        <v>860</v>
       </c>
       <c r="D422" s="30"/>
       <c r="E422" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F422" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G422" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H422" s="30" t="s">
         <v>18</v>
@@ -15492,20 +15552,20 @@
     </row>
     <row r="423" spans="1:9" ht="45">
       <c r="A423" s="30" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B423" s="31" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C423" s="20" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="D423" s="30"/>
       <c r="E423" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F423" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G423" s="30" t="s">
         <v>15</v>
@@ -15515,25 +15575,25 @@
       </c>
       <c r="I423" s="32"/>
     </row>
-    <row r="424" spans="1:9" ht="165">
+    <row r="424" spans="1:9" ht="45">
       <c r="A424" s="30" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B424" s="31" t="s">
-        <v>478</v>
-      </c>
-      <c r="C424" s="32" t="s">
-        <v>786</v>
+        <v>476</v>
+      </c>
+      <c r="C424" s="20" t="s">
+        <v>1051</v>
       </c>
       <c r="D424" s="30"/>
       <c r="E424" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F424" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G424" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H424" s="30" t="s">
         <v>18</v>
@@ -15542,13 +15602,13 @@
     </row>
     <row r="425" spans="1:9" ht="45">
       <c r="A425" s="30" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B425" s="31" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C425" s="20" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="D425" s="30"/>
       <c r="E425" s="30" t="s">
@@ -15565,15 +15625,15 @@
       </c>
       <c r="I425" s="32"/>
     </row>
-    <row r="426" spans="1:9" ht="30">
+    <row r="426" spans="1:9" ht="45">
       <c r="A426" s="30" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B426" s="31" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C426" s="32" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="D426" s="30"/>
       <c r="E426" s="30" t="s">
@@ -15583,29 +15643,29 @@
         <v>6</v>
       </c>
       <c r="G426" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H426" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I426" s="32"/>
     </row>
-    <row r="427" spans="1:9" ht="30">
+    <row r="427" spans="1:9" ht="45">
       <c r="A427" s="30" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B427" s="31" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C427" s="32" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="D427" s="30"/>
       <c r="E427" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F427" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G427" s="30" t="s">
         <v>15</v>
@@ -15615,25 +15675,25 @@
       </c>
       <c r="I427" s="32"/>
     </row>
-    <row r="428" spans="1:9" ht="30">
+    <row r="428" spans="1:9" ht="195">
       <c r="A428" s="30" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B428" s="31" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C428" s="32" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="D428" s="30"/>
       <c r="E428" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F428" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G428" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H428" s="30" t="s">
         <v>18</v>
@@ -15642,13 +15702,13 @@
     </row>
     <row r="429" spans="1:9" ht="30">
       <c r="A429" s="30" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B429" s="31" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C429" s="32" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="D429" s="30"/>
       <c r="E429" s="30" t="s">
@@ -15658,204 +15718,204 @@
         <v>7</v>
       </c>
       <c r="G429" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H429" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I429" s="32"/>
+    </row>
+    <row r="430" spans="1:9" ht="45">
+      <c r="A430" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="B430" s="31" t="s">
+        <v>477</v>
+      </c>
+      <c r="C430" s="32" t="s">
+        <v>785</v>
+      </c>
+      <c r="D430" s="30"/>
+      <c r="E430" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F430" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G430" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H430" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I430" s="32"/>
+    </row>
+    <row r="431" spans="1:9" ht="45">
+      <c r="A431" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="B431" s="31" t="s">
+        <v>478</v>
+      </c>
+      <c r="C431" s="20" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D431" s="30"/>
+      <c r="E431" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F431" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G431" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H431" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I431" s="32"/>
+    </row>
+    <row r="432" spans="1:9" ht="165">
+      <c r="A432" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="B432" s="31" t="s">
+        <v>478</v>
+      </c>
+      <c r="C432" s="32" t="s">
+        <v>786</v>
+      </c>
+      <c r="D432" s="30"/>
+      <c r="E432" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F432" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G432" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="H429" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I429" s="32"/>
-    </row>
-    <row r="430" spans="1:9" ht="45">
-      <c r="A430" s="22" t="s">
-        <v>922</v>
-      </c>
-      <c r="B430" s="24" t="s">
-        <v>861</v>
-      </c>
-      <c r="C430" s="20" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D430" s="22"/>
-      <c r="E430" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F430" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G430" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H430" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I430" s="20"/>
-    </row>
-    <row r="431" spans="1:9" ht="45">
-      <c r="A431" s="22" t="s">
-        <v>923</v>
-      </c>
-      <c r="B431" s="24" t="s">
-        <v>861</v>
-      </c>
-      <c r="C431" s="20" t="s">
-        <v>880</v>
-      </c>
-      <c r="D431" s="22"/>
-      <c r="E431" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F431" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G431" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H431" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I431" s="20"/>
-    </row>
-    <row r="432" spans="1:9" ht="45">
-      <c r="A432" s="22" t="s">
-        <v>924</v>
-      </c>
-      <c r="B432" s="24" t="s">
-        <v>861</v>
-      </c>
-      <c r="C432" s="20" t="s">
-        <v>881</v>
-      </c>
-      <c r="D432" s="22"/>
-      <c r="E432" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F432" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G432" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H432" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I432" s="20"/>
+      <c r="H432" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I432" s="32"/>
     </row>
     <row r="433" spans="1:9" ht="45">
-      <c r="A433" s="22" t="s">
-        <v>925</v>
-      </c>
-      <c r="B433" s="24" t="s">
-        <v>861</v>
+      <c r="A433" s="30" t="s">
+        <v>380</v>
+      </c>
+      <c r="B433" s="31" t="s">
+        <v>478</v>
       </c>
       <c r="C433" s="20" t="s">
-        <v>882</v>
-      </c>
-      <c r="D433" s="22"/>
-      <c r="E433" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F433" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G433" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H433" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I433" s="20"/>
+        <v>1054</v>
+      </c>
+      <c r="D433" s="30"/>
+      <c r="E433" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F433" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G433" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H433" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I433" s="32"/>
     </row>
     <row r="434" spans="1:9" ht="30">
-      <c r="A434" s="22" t="s">
-        <v>926</v>
-      </c>
-      <c r="B434" s="24" t="s">
-        <v>861</v>
-      </c>
-      <c r="C434" s="20" t="s">
-        <v>862</v>
-      </c>
-      <c r="D434" s="22"/>
-      <c r="E434" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F434" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G434" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H434" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I434" s="20"/>
+      <c r="A434" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="B434" s="31" t="s">
+        <v>478</v>
+      </c>
+      <c r="C434" s="32" t="s">
+        <v>787</v>
+      </c>
+      <c r="D434" s="30"/>
+      <c r="E434" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F434" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G434" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H434" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I434" s="32"/>
     </row>
     <row r="435" spans="1:9" ht="30">
-      <c r="A435" s="22" t="s">
-        <v>927</v>
-      </c>
-      <c r="B435" s="24" t="s">
-        <v>861</v>
-      </c>
-      <c r="C435" s="20" t="s">
-        <v>863</v>
-      </c>
-      <c r="D435" s="22"/>
-      <c r="E435" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F435" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G435" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H435" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I435" s="20"/>
+      <c r="A435" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="B435" s="31" t="s">
+        <v>478</v>
+      </c>
+      <c r="C435" s="32" t="s">
+        <v>788</v>
+      </c>
+      <c r="D435" s="30"/>
+      <c r="E435" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F435" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G435" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H435" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I435" s="32"/>
     </row>
     <row r="436" spans="1:9" ht="30">
       <c r="A436" s="30" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B436" s="31" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C436" s="32" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D436" s="30"/>
       <c r="E436" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F436" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G436" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H436" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I436" s="32"/>
     </row>
-    <row r="437" spans="1:9">
+    <row r="437" spans="1:9" ht="30">
       <c r="A437" s="30" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B437" s="31" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C437" s="32" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D437" s="30"/>
       <c r="E437" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F437" s="30" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G437" s="30" t="s">
         <v>16</v>
@@ -15865,167 +15925,165 @@
       </c>
       <c r="I437" s="32"/>
     </row>
-    <row r="438" spans="1:9" ht="30">
-      <c r="A438" s="30" t="s">
-        <v>387</v>
-      </c>
-      <c r="B438" s="31" t="s">
-        <v>480</v>
-      </c>
-      <c r="C438" s="32" t="s">
-        <v>793</v>
-      </c>
-      <c r="D438" s="30"/>
-      <c r="E438" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F438" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G438" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H438" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I438" s="32"/>
-    </row>
-    <row r="439" spans="1:9" ht="30">
-      <c r="A439" s="30" t="s">
-        <v>388</v>
-      </c>
-      <c r="B439" s="31" t="s">
-        <v>480</v>
-      </c>
-      <c r="C439" s="32" t="s">
-        <v>794</v>
-      </c>
-      <c r="D439" s="30"/>
-      <c r="E439" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F439" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G439" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H439" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I439" s="32"/>
-    </row>
-    <row r="440" spans="1:9" ht="30">
-      <c r="A440" s="30" t="s">
-        <v>389</v>
-      </c>
-      <c r="B440" s="31" t="s">
-        <v>481</v>
+    <row r="438" spans="1:9" ht="45">
+      <c r="A438" s="22" t="s">
+        <v>922</v>
+      </c>
+      <c r="B438" s="24" t="s">
+        <v>861</v>
+      </c>
+      <c r="C438" s="20" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D438" s="22"/>
+      <c r="E438" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F438" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G438" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H438" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I438" s="20"/>
+    </row>
+    <row r="439" spans="1:9" ht="45">
+      <c r="A439" s="22" t="s">
+        <v>923</v>
+      </c>
+      <c r="B439" s="24" t="s">
+        <v>861</v>
+      </c>
+      <c r="C439" s="20" t="s">
+        <v>880</v>
+      </c>
+      <c r="D439" s="22"/>
+      <c r="E439" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F439" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G439" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H439" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I439" s="20"/>
+    </row>
+    <row r="440" spans="1:9" ht="45">
+      <c r="A440" s="22" t="s">
+        <v>924</v>
+      </c>
+      <c r="B440" s="24" t="s">
+        <v>861</v>
       </c>
       <c r="C440" s="20" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D440" s="30"/>
-      <c r="E440" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F440" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G440" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H440" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I440" s="32"/>
-    </row>
-    <row r="441" spans="1:9" ht="30">
+        <v>881</v>
+      </c>
+      <c r="D440" s="22"/>
+      <c r="E440" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F440" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G440" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H440" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I440" s="20"/>
+    </row>
+    <row r="441" spans="1:9" ht="45">
       <c r="A441" s="22" t="s">
-        <v>928</v>
-      </c>
-      <c r="B441" s="31" t="s">
-        <v>481</v>
+        <v>925</v>
+      </c>
+      <c r="B441" s="24" t="s">
+        <v>861</v>
       </c>
       <c r="C441" s="20" t="s">
-        <v>864</v>
+        <v>882</v>
       </c>
       <c r="D441" s="22"/>
-      <c r="E441" s="34" t="s">
+      <c r="E441" s="22" t="s">
         <v>19</v>
       </c>
       <c r="F441" s="22" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G441" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H441" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I441" s="20"/>
+    </row>
+    <row r="442" spans="1:9" ht="30">
+      <c r="A442" s="22" t="s">
+        <v>926</v>
+      </c>
+      <c r="B442" s="24" t="s">
+        <v>861</v>
+      </c>
+      <c r="C442" s="20" t="s">
+        <v>862</v>
+      </c>
+      <c r="D442" s="22"/>
+      <c r="E442" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F442" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G442" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H442" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I442" s="20"/>
+    </row>
+    <row r="443" spans="1:9" ht="30">
+      <c r="A443" s="22" t="s">
+        <v>927</v>
+      </c>
+      <c r="B443" s="24" t="s">
+        <v>861</v>
+      </c>
+      <c r="C443" s="20" t="s">
+        <v>863</v>
+      </c>
+      <c r="D443" s="22"/>
+      <c r="E443" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F443" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G443" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H441" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I441" s="20"/>
-    </row>
-    <row r="442" spans="1:9" ht="30">
-      <c r="A442" s="30" t="s">
-        <v>390</v>
-      </c>
-      <c r="B442" s="31" t="s">
-        <v>481</v>
-      </c>
-      <c r="C442" s="20" t="s">
-        <v>865</v>
-      </c>
-      <c r="D442" s="30"/>
-      <c r="E442" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F442" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G442" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H442" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I442" s="32"/>
-    </row>
-    <row r="443" spans="1:9" ht="45">
-      <c r="A443" s="30" t="s">
-        <v>391</v>
-      </c>
-      <c r="B443" s="31" t="s">
-        <v>481</v>
-      </c>
-      <c r="C443" s="20" t="s">
-        <v>866</v>
-      </c>
-      <c r="D443" s="30"/>
-      <c r="E443" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F443" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G443" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H443" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I443" s="32" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="444" spans="1:9" ht="45">
+      <c r="H443" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I443" s="20"/>
+    </row>
+    <row r="444" spans="1:9" ht="30">
       <c r="A444" s="30" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B444" s="31" t="s">
-        <v>481</v>
-      </c>
-      <c r="C444" s="20" t="s">
-        <v>867</v>
+        <v>479</v>
+      </c>
+      <c r="C444" s="32" t="s">
+        <v>791</v>
       </c>
       <c r="D444" s="30"/>
       <c r="E444" s="30" t="s">
@@ -16035,32 +16093,32 @@
         <v>6</v>
       </c>
       <c r="G444" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H444" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I444" s="32"/>
     </row>
-    <row r="445" spans="1:9" ht="60">
+    <row r="445" spans="1:9">
       <c r="A445" s="30" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B445" s="31" t="s">
-        <v>481</v>
-      </c>
-      <c r="C445" s="20" t="s">
-        <v>1057</v>
+        <v>479</v>
+      </c>
+      <c r="C445" s="32" t="s">
+        <v>792</v>
       </c>
       <c r="D445" s="30"/>
       <c r="E445" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F445" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G445" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H445" s="30" t="s">
         <v>18</v>
@@ -16068,96 +16126,96 @@
       <c r="I445" s="32"/>
     </row>
     <row r="446" spans="1:9" ht="30">
-      <c r="A446" s="22" t="s">
-        <v>929</v>
+      <c r="A446" s="30" t="s">
+        <v>387</v>
       </c>
       <c r="B446" s="31" t="s">
-        <v>481</v>
-      </c>
-      <c r="C446" s="20" t="s">
-        <v>868</v>
-      </c>
-      <c r="D446" s="22"/>
-      <c r="E446" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F446" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="G446" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H446" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I446" s="20"/>
+        <v>480</v>
+      </c>
+      <c r="C446" s="32" t="s">
+        <v>793</v>
+      </c>
+      <c r="D446" s="30"/>
+      <c r="E446" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F446" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G446" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H446" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I446" s="32"/>
     </row>
     <row r="447" spans="1:9" ht="30">
-      <c r="A447" s="22" t="s">
-        <v>930</v>
+      <c r="A447" s="30" t="s">
+        <v>388</v>
       </c>
       <c r="B447" s="31" t="s">
-        <v>481</v>
-      </c>
-      <c r="C447" s="20" t="s">
-        <v>869</v>
-      </c>
-      <c r="D447" s="22"/>
-      <c r="E447" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F447" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="G447" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H447" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I447" s="20"/>
+        <v>480</v>
+      </c>
+      <c r="C447" s="32" t="s">
+        <v>794</v>
+      </c>
+      <c r="D447" s="30"/>
+      <c r="E447" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F447" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G447" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H447" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I447" s="32"/>
     </row>
     <row r="448" spans="1:9" ht="30">
-      <c r="A448" s="22" t="s">
-        <v>931</v>
+      <c r="A448" s="30" t="s">
+        <v>389</v>
       </c>
       <c r="B448" s="31" t="s">
         <v>481</v>
       </c>
       <c r="C448" s="20" t="s">
-        <v>870</v>
-      </c>
-      <c r="D448" s="22"/>
-      <c r="E448" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F448" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="G448" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H448" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I448" s="20"/>
+        <v>1056</v>
+      </c>
+      <c r="D448" s="30"/>
+      <c r="E448" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F448" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G448" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H448" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I448" s="32"/>
     </row>
     <row r="449" spans="1:9" ht="30">
       <c r="A449" s="22" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="B449" s="31" t="s">
         <v>481</v>
       </c>
       <c r="C449" s="20" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="D449" s="22"/>
       <c r="E449" s="34" t="s">
         <v>19</v>
       </c>
       <c r="F449" s="22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G449" s="22" t="s">
         <v>16</v>
@@ -16167,92 +16225,92 @@
       </c>
       <c r="I449" s="20"/>
     </row>
-    <row r="450" spans="1:9" ht="75">
-      <c r="A450" s="22" t="s">
-        <v>933</v>
+    <row r="450" spans="1:9" ht="30">
+      <c r="A450" s="30" t="s">
+        <v>390</v>
       </c>
       <c r="B450" s="31" t="s">
         <v>481</v>
       </c>
       <c r="C450" s="20" t="s">
-        <v>883</v>
-      </c>
-      <c r="D450" s="22"/>
-      <c r="E450" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F450" s="22" t="s">
+        <v>865</v>
+      </c>
+      <c r="D450" s="30"/>
+      <c r="E450" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F450" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G450" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H450" s="22" t="s">
+      <c r="G450" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H450" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="I450" s="20" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="451" spans="1:9" ht="75">
-      <c r="A451" s="22" t="s">
-        <v>934</v>
+      <c r="I450" s="32"/>
+    </row>
+    <row r="451" spans="1:9" ht="45">
+      <c r="A451" s="30" t="s">
+        <v>391</v>
       </c>
       <c r="B451" s="31" t="s">
         <v>481</v>
       </c>
       <c r="C451" s="20" t="s">
-        <v>884</v>
-      </c>
-      <c r="D451" s="22"/>
-      <c r="E451" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F451" s="22" t="s">
+        <v>866</v>
+      </c>
+      <c r="D451" s="30"/>
+      <c r="E451" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F451" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G451" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H451" s="22" t="s">
+      <c r="G451" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H451" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="I451" s="32"/>
-    </row>
-    <row r="452" spans="1:9" ht="60">
+      <c r="I451" s="32" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9" ht="45">
       <c r="A452" s="30" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B452" s="31" t="s">
         <v>481</v>
       </c>
       <c r="C452" s="20" t="s">
-        <v>1058</v>
+        <v>867</v>
       </c>
       <c r="D452" s="30"/>
       <c r="E452" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F452" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G452" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H452" s="30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I452" s="32"/>
     </row>
     <row r="453" spans="1:9" ht="60">
       <c r="A453" s="30" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B453" s="31" t="s">
         <v>481</v>
       </c>
-      <c r="C453" s="32" t="s">
-        <v>795</v>
+      <c r="C453" s="20" t="s">
+        <v>1057</v>
       </c>
       <c r="D453" s="30"/>
       <c r="E453" s="30" t="s">
@@ -16270,193 +16328,191 @@
       <c r="I453" s="32"/>
     </row>
     <row r="454" spans="1:9" ht="30">
-      <c r="A454" s="30" t="s">
-        <v>396</v>
+      <c r="A454" s="22" t="s">
+        <v>929</v>
       </c>
       <c r="B454" s="31" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C454" s="20" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D454" s="30"/>
-      <c r="E454" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F454" s="30" t="s">
+        <v>868</v>
+      </c>
+      <c r="D454" s="22"/>
+      <c r="E454" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F454" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G454" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H454" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I454" s="32"/>
-    </row>
-    <row r="455" spans="1:9" ht="45">
+      <c r="G454" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H454" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I454" s="20"/>
+    </row>
+    <row r="455" spans="1:9" ht="30">
       <c r="A455" s="22" t="s">
-        <v>397</v>
+        <v>930</v>
       </c>
       <c r="B455" s="31" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C455" s="20" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D455" s="30"/>
-      <c r="E455" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F455" s="30" t="s">
+        <v>869</v>
+      </c>
+      <c r="D455" s="22"/>
+      <c r="E455" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F455" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G455" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H455" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I455" s="37" t="s">
-        <v>947</v>
-      </c>
+      <c r="G455" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H455" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I455" s="20"/>
     </row>
     <row r="456" spans="1:9" ht="30">
-      <c r="A456" s="30" t="s">
-        <v>398</v>
+      <c r="A456" s="22" t="s">
+        <v>931</v>
       </c>
       <c r="B456" s="31" t="s">
-        <v>482</v>
-      </c>
-      <c r="C456" s="32" t="s">
-        <v>796</v>
-      </c>
-      <c r="D456" s="30"/>
-      <c r="E456" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F456" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G456" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H456" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I456" s="32"/>
-    </row>
-    <row r="457" spans="1:9" ht="45">
-      <c r="A457" s="30" t="s">
-        <v>399</v>
+        <v>481</v>
+      </c>
+      <c r="C456" s="20" t="s">
+        <v>870</v>
+      </c>
+      <c r="D456" s="22"/>
+      <c r="E456" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F456" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G456" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H456" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I456" s="20"/>
+    </row>
+    <row r="457" spans="1:9" ht="30">
+      <c r="A457" s="22" t="s">
+        <v>932</v>
       </c>
       <c r="B457" s="31" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C457" s="20" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D457" s="30"/>
-      <c r="E457" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F457" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G457" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H457" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I457" s="20" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="458" spans="1:9" ht="30">
+        <v>871</v>
+      </c>
+      <c r="D457" s="22"/>
+      <c r="E457" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F457" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G457" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H457" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I457" s="20"/>
+    </row>
+    <row r="458" spans="1:9" ht="75">
       <c r="A458" s="22" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B458" s="31" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C458" s="20" t="s">
-        <v>872</v>
+        <v>883</v>
       </c>
       <c r="D458" s="22"/>
       <c r="E458" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F458" s="30" t="s">
+      <c r="F458" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G458" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H458" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I458" s="20"/>
-    </row>
-    <row r="459" spans="1:9" ht="45">
+        <v>17</v>
+      </c>
+      <c r="I458" s="20" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9" ht="75">
       <c r="A459" s="22" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B459" s="31" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C459" s="20" t="s">
-        <v>1062</v>
+        <v>884</v>
       </c>
       <c r="D459" s="22"/>
-      <c r="E459" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F459" s="30" t="s">
+      <c r="E459" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F459" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G459" s="30" t="s">
+      <c r="G459" s="22" t="s">
         <v>15</v>
       </c>
       <c r="H459" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I459" s="20"/>
-    </row>
-    <row r="460" spans="1:9" ht="45">
-      <c r="A460" s="22" t="s">
-        <v>937</v>
+        <v>17</v>
+      </c>
+      <c r="I459" s="32"/>
+    </row>
+    <row r="460" spans="1:9" ht="60">
+      <c r="A460" s="30" t="s">
+        <v>394</v>
       </c>
       <c r="B460" s="31" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C460" s="20" t="s">
-        <v>873</v>
-      </c>
-      <c r="D460" s="22"/>
-      <c r="E460" s="34" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D460" s="30"/>
+      <c r="E460" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F460" s="30" t="s">
         <v>3</v>
       </c>
       <c r="G460" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H460" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I460" s="20"/>
-    </row>
-    <row r="461" spans="1:9">
+        <v>15</v>
+      </c>
+      <c r="H460" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I460" s="32"/>
+    </row>
+    <row r="461" spans="1:9" ht="60">
       <c r="A461" s="30" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B461" s="31" t="s">
-        <v>483</v>
-      </c>
-      <c r="C461" s="20" t="s">
-        <v>1064</v>
+        <v>481</v>
+      </c>
+      <c r="C461" s="32" t="s">
+        <v>795</v>
       </c>
       <c r="D461" s="30"/>
       <c r="E461" s="30" t="s">
@@ -16466,7 +16522,7 @@
         <v>6</v>
       </c>
       <c r="G461" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H461" s="30" t="s">
         <v>18</v>
@@ -16475,13 +16531,13 @@
     </row>
     <row r="462" spans="1:9" ht="30">
       <c r="A462" s="30" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B462" s="31" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C462" s="20" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="D462" s="30"/>
       <c r="E462" s="30" t="s">
@@ -16491,22 +16547,22 @@
         <v>6</v>
       </c>
       <c r="G462" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H462" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I462" s="32"/>
     </row>
-    <row r="463" spans="1:9" ht="30">
-      <c r="A463" s="30" t="s">
-        <v>402</v>
+    <row r="463" spans="1:9" ht="45">
+      <c r="A463" s="22" t="s">
+        <v>397</v>
       </c>
       <c r="B463" s="31" t="s">
-        <v>483</v>
-      </c>
-      <c r="C463" s="32" t="s">
-        <v>797</v>
+        <v>482</v>
+      </c>
+      <c r="C463" s="20" t="s">
+        <v>1060</v>
       </c>
       <c r="D463" s="30"/>
       <c r="E463" s="30" t="s">
@@ -16516,47 +16572,49 @@
         <v>6</v>
       </c>
       <c r="G463" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H463" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I463" s="32"/>
+        <v>17</v>
+      </c>
+      <c r="I463" s="37" t="s">
+        <v>947</v>
+      </c>
     </row>
     <row r="464" spans="1:9" ht="30">
       <c r="A464" s="30" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B464" s="31" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C464" s="32" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D464" s="30"/>
       <c r="E464" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F464" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G464" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H464" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I464" s="32"/>
     </row>
-    <row r="465" spans="1:9" ht="30">
+    <row r="465" spans="1:9" ht="45">
       <c r="A465" s="30" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B465" s="31" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C465" s="20" t="s">
-        <v>874</v>
+        <v>1061</v>
       </c>
       <c r="D465" s="30"/>
       <c r="E465" s="30" t="s">
@@ -16569,170 +16627,156 @@
         <v>15</v>
       </c>
       <c r="H465" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I465" s="32"/>
-    </row>
-    <row r="466" spans="1:9" ht="105">
-      <c r="A466" s="30" t="s">
-        <v>405</v>
+        <v>17</v>
+      </c>
+      <c r="I465" s="20" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9" ht="30">
+      <c r="A466" s="22" t="s">
+        <v>935</v>
       </c>
       <c r="B466" s="31" t="s">
         <v>483</v>
       </c>
       <c r="C466" s="20" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D466" s="30"/>
-      <c r="E466" s="30" t="s">
+        <v>872</v>
+      </c>
+      <c r="D466" s="22"/>
+      <c r="E466" s="34" t="s">
         <v>19</v>
       </c>
       <c r="F466" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G466" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H466" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I466" s="20" t="s">
-        <v>949</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G466" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H466" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I466" s="20"/>
     </row>
     <row r="467" spans="1:9" ht="45">
-      <c r="A467" s="30" t="s">
-        <v>406</v>
+      <c r="A467" s="22" t="s">
+        <v>936</v>
       </c>
       <c r="B467" s="31" t="s">
-        <v>484</v>
-      </c>
-      <c r="C467" s="32" t="s">
-        <v>799</v>
-      </c>
-      <c r="D467" s="30"/>
-      <c r="E467" s="30" t="s">
-        <v>22</v>
+        <v>483</v>
+      </c>
+      <c r="C467" s="20" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D467" s="22"/>
+      <c r="E467" s="34" t="s">
+        <v>19</v>
       </c>
       <c r="F467" s="30" t="s">
         <v>3</v>
       </c>
       <c r="G467" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H467" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I467" s="20"/>
+    </row>
+    <row r="468" spans="1:9" ht="45">
+      <c r="A468" s="22" t="s">
+        <v>937</v>
+      </c>
+      <c r="B468" s="31" t="s">
+        <v>483</v>
+      </c>
+      <c r="C468" s="20" t="s">
+        <v>873</v>
+      </c>
+      <c r="D468" s="22"/>
+      <c r="E468" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F468" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G468" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="H467" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I467" s="32"/>
-    </row>
-    <row r="468" spans="1:9" ht="45">
-      <c r="A468" s="30" t="s">
-        <v>407</v>
-      </c>
-      <c r="B468" s="31" t="s">
-        <v>484</v>
-      </c>
-      <c r="C468" s="32" t="s">
-        <v>800</v>
-      </c>
-      <c r="D468" s="30" t="s">
-        <v>811</v>
-      </c>
-      <c r="E468" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F468" s="30" t="s">
+      <c r="H468" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I468" s="20"/>
+    </row>
+    <row r="469" spans="1:9">
+      <c r="A469" s="30" t="s">
+        <v>400</v>
+      </c>
+      <c r="B469" s="31" t="s">
+        <v>483</v>
+      </c>
+      <c r="C469" s="20" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D469" s="30"/>
+      <c r="E469" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F469" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G468" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H468" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I468" s="32" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="469" spans="1:9" ht="45">
-      <c r="A469" s="30" t="s">
-        <v>408</v>
-      </c>
-      <c r="B469" s="31" t="s">
-        <v>484</v>
-      </c>
-      <c r="C469" s="32" t="s">
-        <v>801</v>
-      </c>
-      <c r="D469" s="30" t="s">
-        <v>812</v>
-      </c>
-      <c r="E469" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F469" s="30" t="s">
-        <v>3</v>
-      </c>
       <c r="G469" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H469" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I469" s="32" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="470" spans="1:9" ht="60">
-      <c r="A470" s="22" t="s">
-        <v>945</v>
+        <v>18</v>
+      </c>
+      <c r="I469" s="32"/>
+    </row>
+    <row r="470" spans="1:9" ht="30">
+      <c r="A470" s="30" t="s">
+        <v>401</v>
       </c>
       <c r="B470" s="31" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C470" s="20" t="s">
-        <v>943</v>
-      </c>
-      <c r="D470" s="22" t="s">
-        <v>944</v>
-      </c>
-      <c r="E470" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F470" s="22" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D470" s="30"/>
+      <c r="E470" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F470" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G470" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H470" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I470" s="32" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="471" spans="1:9" ht="60">
-      <c r="A471" s="22" t="s">
-        <v>409</v>
+      <c r="G470" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H470" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I470" s="32"/>
+    </row>
+    <row r="471" spans="1:9" ht="30">
+      <c r="A471" s="30" t="s">
+        <v>402</v>
       </c>
       <c r="B471" s="31" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C471" s="32" t="s">
-        <v>802</v>
-      </c>
-      <c r="D471" s="22" t="s">
-        <v>942</v>
-      </c>
+        <v>797</v>
+      </c>
+      <c r="D471" s="30"/>
       <c r="E471" s="30" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F471" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G471" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H471" s="30" t="s">
         <v>18</v>
@@ -16741,20 +16785,20 @@
     </row>
     <row r="472" spans="1:9" ht="30">
       <c r="A472" s="30" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B472" s="31" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C472" s="32" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="D472" s="30"/>
       <c r="E472" s="30" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F472" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G472" s="30" t="s">
         <v>16</v>
@@ -16764,92 +16808,96 @@
       </c>
       <c r="I472" s="32"/>
     </row>
-    <row r="473" spans="1:9" ht="45">
+    <row r="473" spans="1:9" ht="30">
       <c r="A473" s="30" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B473" s="31" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C473" s="20" t="s">
-        <v>804</v>
+        <v>874</v>
       </c>
       <c r="D473" s="30"/>
       <c r="E473" s="30" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F473" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G473" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H473" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I473" s="32"/>
+    </row>
+    <row r="474" spans="1:9" ht="105">
+      <c r="A474" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="B474" s="31" t="s">
+        <v>483</v>
+      </c>
+      <c r="C474" s="20" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D474" s="30"/>
+      <c r="E474" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F474" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G473" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H473" s="30" t="s">
+      <c r="G474" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H474" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="I473" s="32"/>
-    </row>
-    <row r="474" spans="1:9" ht="45">
-      <c r="A474" s="22" t="s">
-        <v>938</v>
-      </c>
-      <c r="B474" s="31" t="s">
-        <v>484</v>
-      </c>
-      <c r="C474" s="20" t="s">
-        <v>875</v>
-      </c>
-      <c r="D474" s="22"/>
-      <c r="E474" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F474" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="G474" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H474" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I474" s="20"/>
-    </row>
-    <row r="475" spans="1:9" ht="30">
+      <c r="I474" s="20" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9" ht="45">
       <c r="A475" s="30" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B475" s="31" t="s">
         <v>484</v>
       </c>
-      <c r="C475" s="20" t="s">
-        <v>805</v>
+      <c r="C475" s="32" t="s">
+        <v>799</v>
       </c>
       <c r="D475" s="30"/>
       <c r="E475" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F475" s="30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G475" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H475" s="30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I475" s="32"/>
     </row>
     <row r="476" spans="1:9" ht="45">
       <c r="A476" s="30" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B476" s="31" t="s">
         <v>484</v>
       </c>
       <c r="C476" s="32" t="s">
-        <v>806</v>
-      </c>
-      <c r="D476" s="30"/>
+        <v>800</v>
+      </c>
+      <c r="D476" s="30" t="s">
+        <v>811</v>
+      </c>
       <c r="E476" s="30" t="s">
         <v>22</v>
       </c>
@@ -16860,22 +16908,24 @@
         <v>15</v>
       </c>
       <c r="H476" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I476" s="32"/>
-    </row>
-    <row r="477" spans="1:9" ht="60">
-      <c r="A477" s="22" t="s">
-        <v>414</v>
+        <v>20</v>
+      </c>
+      <c r="I476" s="32" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9" ht="45">
+      <c r="A477" s="30" t="s">
+        <v>408</v>
       </c>
       <c r="B477" s="31" t="s">
         <v>484</v>
       </c>
-      <c r="C477" s="20" t="s">
-        <v>1066</v>
+      <c r="C477" s="32" t="s">
+        <v>801</v>
       </c>
       <c r="D477" s="30" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E477" s="30" t="s">
         <v>22</v>
@@ -16887,49 +16937,59 @@
         <v>15</v>
       </c>
       <c r="H477" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I477" s="32"/>
-    </row>
-    <row r="478" spans="1:9" ht="45">
+        <v>21</v>
+      </c>
+      <c r="I477" s="32" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9" ht="60">
       <c r="A478" s="22" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B478" s="41">
+        <v>945</v>
+      </c>
+      <c r="B478" s="31" t="s">
+        <v>484</v>
+      </c>
+      <c r="C478" s="20" t="s">
+        <v>943</v>
+      </c>
+      <c r="D478" s="22" t="s">
+        <v>944</v>
+      </c>
+      <c r="E478" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F478" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C478" s="20" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D478" s="38"/>
-      <c r="E478" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F478" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G478" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H478" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I478" s="40"/>
-    </row>
-    <row r="479" spans="1:9" ht="45">
-      <c r="A479" s="38"/>
-      <c r="B479" s="41">
-        <v>6</v>
-      </c>
-      <c r="C479" s="20" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D479" s="38"/>
+      <c r="G478" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H478" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I478" s="32" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9" ht="60">
+      <c r="A479" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="B479" s="31" t="s">
+        <v>484</v>
+      </c>
+      <c r="C479" s="32" t="s">
+        <v>802</v>
+      </c>
+      <c r="D479" s="22" t="s">
+        <v>942</v>
+      </c>
       <c r="E479" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F479" s="30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G479" s="30" t="s">
         <v>15</v>
@@ -16937,92 +16997,92 @@
       <c r="H479" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="I479" s="40"/>
+      <c r="I479" s="32"/>
     </row>
     <row r="480" spans="1:9" ht="30">
       <c r="A480" s="30" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B480" s="31" t="s">
         <v>484</v>
       </c>
-      <c r="C480" s="20" t="s">
-        <v>1075</v>
+      <c r="C480" s="32" t="s">
+        <v>803</v>
       </c>
       <c r="D480" s="30"/>
       <c r="E480" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F480" s="30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G480" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H480" s="30" t="s">
         <v>18</v>
       </c>
       <c r="I480" s="32"/>
     </row>
-    <row r="481" spans="1:9" ht="30">
+    <row r="481" spans="1:9" ht="45">
       <c r="A481" s="30" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B481" s="31" t="s">
         <v>484</v>
       </c>
       <c r="C481" s="20" t="s">
-        <v>1076</v>
+        <v>804</v>
       </c>
       <c r="D481" s="30"/>
       <c r="E481" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F481" s="30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G481" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H481" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I481" s="32"/>
     </row>
-    <row r="482" spans="1:9" ht="30">
-      <c r="A482" s="30" t="s">
-        <v>417</v>
+    <row r="482" spans="1:9" ht="45">
+      <c r="A482" s="22" t="s">
+        <v>938</v>
       </c>
       <c r="B482" s="31" t="s">
         <v>484</v>
       </c>
       <c r="C482" s="20" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D482" s="30"/>
+        <v>875</v>
+      </c>
+      <c r="D482" s="22"/>
       <c r="E482" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F482" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G482" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H482" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I482" s="32"/>
-    </row>
-    <row r="483" spans="1:9" ht="45">
+      <c r="F482" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G482" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H482" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I482" s="20"/>
+    </row>
+    <row r="483" spans="1:9" ht="30">
       <c r="A483" s="30" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B483" s="31" t="s">
         <v>484</v>
       </c>
       <c r="C483" s="20" t="s">
-        <v>1078</v>
+        <v>805</v>
       </c>
       <c r="D483" s="30"/>
       <c r="E483" s="30" t="s">
@@ -17035,19 +17095,19 @@
         <v>15</v>
       </c>
       <c r="H483" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I483" s="32"/>
     </row>
-    <row r="484" spans="1:9" ht="30">
+    <row r="484" spans="1:9" ht="45">
       <c r="A484" s="30" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B484" s="31" t="s">
         <v>484</v>
       </c>
       <c r="C484" s="32" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D484" s="30"/>
       <c r="E484" s="30" t="s">
@@ -17060,79 +17120,71 @@
         <v>15</v>
       </c>
       <c r="H484" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I484" s="32"/>
     </row>
-    <row r="485" spans="1:9" ht="75">
-      <c r="A485" s="30" t="s">
-        <v>420</v>
+    <row r="485" spans="1:9" ht="60">
+      <c r="A485" s="22" t="s">
+        <v>414</v>
       </c>
       <c r="B485" s="31" t="s">
         <v>484</v>
       </c>
       <c r="C485" s="20" t="s">
-        <v>1079</v>
+        <v>1066</v>
       </c>
       <c r="D485" s="30" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E485" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F485" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G485" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H485" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I485" s="32"/>
+    </row>
+    <row r="486" spans="1:9" ht="45">
+      <c r="A486" s="22" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B486" s="41">
         <v>6</v>
       </c>
-      <c r="G485" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H485" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I485" s="32"/>
-    </row>
-    <row r="486" spans="1:9" ht="60">
-      <c r="A486" s="30" t="s">
-        <v>421</v>
-      </c>
-      <c r="B486" s="31" t="s">
-        <v>484</v>
-      </c>
       <c r="C486" s="20" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D486" s="30" t="s">
-        <v>815</v>
-      </c>
+        <v>1068</v>
+      </c>
+      <c r="D486" s="38"/>
       <c r="E486" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F486" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G486" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H486" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I486" s="40"/>
+    </row>
+    <row r="487" spans="1:9" ht="45">
+      <c r="A487" s="38"/>
+      <c r="B487" s="41">
         <v>6</v>
       </c>
-      <c r="G486" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H486" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I486" s="20" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="487" spans="1:9" ht="45">
-      <c r="A487" s="22" t="s">
-        <v>422</v>
-      </c>
-      <c r="B487" s="31" t="s">
-        <v>484</v>
-      </c>
       <c r="C487" s="20" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D487" s="30" t="s">
-        <v>816</v>
-      </c>
+        <v>1069</v>
+      </c>
+      <c r="D487" s="38"/>
       <c r="E487" s="30" t="s">
         <v>22</v>
       </c>
@@ -17142,60 +17194,52 @@
       <c r="G487" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H487" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I487" s="20" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="488" spans="1:9" ht="45">
+      <c r="H487" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I487" s="40"/>
+    </row>
+    <row r="488" spans="1:9" ht="30">
       <c r="A488" s="30" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B488" s="31" t="s">
         <v>484</v>
       </c>
       <c r="C488" s="20" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D488" s="30" t="s">
-        <v>817</v>
-      </c>
+        <v>1074</v>
+      </c>
+      <c r="D488" s="30"/>
       <c r="E488" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F488" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G488" s="30" t="s">
         <v>15</v>
       </c>
       <c r="H488" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I488" s="20" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="489" spans="1:9" ht="60">
+        <v>18</v>
+      </c>
+      <c r="I488" s="32"/>
+    </row>
+    <row r="489" spans="1:9" ht="30">
       <c r="A489" s="30" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B489" s="31" t="s">
         <v>484</v>
       </c>
       <c r="C489" s="20" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D489" s="30" t="s">
-        <v>817</v>
-      </c>
+        <v>1075</v>
+      </c>
+      <c r="D489" s="30"/>
       <c r="E489" s="30" t="s">
         <v>22</v>
       </c>
       <c r="F489" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G489" s="30" t="s">
         <v>15</v>
@@ -17205,46 +17249,42 @@
       </c>
       <c r="I489" s="32"/>
     </row>
-    <row r="490" spans="1:9" ht="60">
-      <c r="A490" s="22" t="s">
-        <v>939</v>
-      </c>
-      <c r="B490" s="24" t="s">
+    <row r="490" spans="1:9" ht="30">
+      <c r="A490" s="30" t="s">
+        <v>417</v>
+      </c>
+      <c r="B490" s="31" t="s">
         <v>484</v>
       </c>
       <c r="C490" s="20" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D490" s="30" t="s">
-        <v>817</v>
-      </c>
-      <c r="E490" s="22" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D490" s="30"/>
+      <c r="E490" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F490" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="G490" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H490" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I490" s="20"/>
+      <c r="F490" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G490" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H490" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I490" s="32"/>
     </row>
     <row r="491" spans="1:9" ht="45">
       <c r="A491" s="30" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B491" s="31" t="s">
         <v>484</v>
       </c>
-      <c r="C491" s="32" t="s">
-        <v>808</v>
-      </c>
-      <c r="D491" s="30" t="s">
-        <v>817</v>
-      </c>
+      <c r="C491" s="20" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D491" s="30"/>
       <c r="E491" s="30" t="s">
         <v>22</v>
       </c>
@@ -17255,25 +17295,21 @@
         <v>15</v>
       </c>
       <c r="H491" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I491" s="32" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="492" spans="1:9" ht="45">
+        <v>18</v>
+      </c>
+      <c r="I491" s="32"/>
+    </row>
+    <row r="492" spans="1:9" ht="30">
       <c r="A492" s="30" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="B492" s="31" t="s">
         <v>484</v>
       </c>
       <c r="C492" s="32" t="s">
-        <v>809</v>
-      </c>
-      <c r="D492" s="30" t="s">
-        <v>817</v>
-      </c>
+        <v>807</v>
+      </c>
+      <c r="D492" s="30"/>
       <c r="E492" s="30" t="s">
         <v>22</v>
       </c>
@@ -17284,53 +17320,49 @@
         <v>15</v>
       </c>
       <c r="H492" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I492" s="32" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="493" spans="1:9" ht="45">
+        <v>18</v>
+      </c>
+      <c r="I492" s="32"/>
+    </row>
+    <row r="493" spans="1:9" ht="75">
       <c r="A493" s="30" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B493" s="31" t="s">
         <v>484</v>
       </c>
-      <c r="C493" s="32" t="s">
-        <v>810</v>
+      <c r="C493" s="20" t="s">
+        <v>1078</v>
       </c>
       <c r="D493" s="30" t="s">
-        <v>817</v>
-      </c>
-      <c r="E493" s="22" t="s">
+        <v>814</v>
+      </c>
+      <c r="E493" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F493" s="22" t="s">
+      <c r="F493" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G493" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H493" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I493" s="32" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="494" spans="1:9" ht="45">
-      <c r="A494" s="22" t="s">
-        <v>941</v>
+      <c r="G493" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H493" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I493" s="32"/>
+    </row>
+    <row r="494" spans="1:9" ht="60">
+      <c r="A494" s="30" t="s">
+        <v>421</v>
       </c>
       <c r="B494" s="31" t="s">
         <v>484</v>
       </c>
       <c r="C494" s="20" t="s">
-        <v>940</v>
+        <v>1079</v>
       </c>
       <c r="D494" s="30" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E494" s="30" t="s">
         <v>22</v>
@@ -17341,57 +17373,280 @@
       <c r="G494" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H494" s="30" t="s">
+      <c r="H494" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I494" s="20" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9" ht="45">
+      <c r="A495" s="22" t="s">
+        <v>422</v>
+      </c>
+      <c r="B495" s="31" t="s">
+        <v>484</v>
+      </c>
+      <c r="C495" s="20" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D495" s="30" t="s">
+        <v>816</v>
+      </c>
+      <c r="E495" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F495" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G495" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H495" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I495" s="20" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9" ht="45">
+      <c r="A496" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="B496" s="31" t="s">
+        <v>484</v>
+      </c>
+      <c r="C496" s="20" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D496" s="30" t="s">
+        <v>817</v>
+      </c>
+      <c r="E496" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F496" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G496" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H496" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="I494" s="32" t="s">
+      <c r="I496" s="20" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="495" spans="1:9" s="60" customFormat="1" ht="45.75" thickBot="1">
-      <c r="A495" s="55" t="s">
+    <row r="497" spans="1:9" ht="60">
+      <c r="A497" s="30" t="s">
+        <v>424</v>
+      </c>
+      <c r="B497" s="31" t="s">
+        <v>484</v>
+      </c>
+      <c r="C497" s="20" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D497" s="30" t="s">
+        <v>817</v>
+      </c>
+      <c r="E497" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F497" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G497" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H497" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I497" s="32"/>
+    </row>
+    <row r="498" spans="1:9" ht="60">
+      <c r="A498" s="22" t="s">
+        <v>939</v>
+      </c>
+      <c r="B498" s="24" t="s">
+        <v>484</v>
+      </c>
+      <c r="C498" s="20" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D498" s="30" t="s">
+        <v>817</v>
+      </c>
+      <c r="E498" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F498" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G498" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H498" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I498" s="20"/>
+    </row>
+    <row r="499" spans="1:9" ht="45">
+      <c r="A499" s="30" t="s">
+        <v>425</v>
+      </c>
+      <c r="B499" s="31" t="s">
+        <v>484</v>
+      </c>
+      <c r="C499" s="32" t="s">
+        <v>808</v>
+      </c>
+      <c r="D499" s="30" t="s">
+        <v>817</v>
+      </c>
+      <c r="E499" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F499" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G499" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H499" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I499" s="32" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="500" spans="1:9" ht="45">
+      <c r="A500" s="30" t="s">
+        <v>426</v>
+      </c>
+      <c r="B500" s="31" t="s">
+        <v>484</v>
+      </c>
+      <c r="C500" s="32" t="s">
+        <v>809</v>
+      </c>
+      <c r="D500" s="30" t="s">
+        <v>817</v>
+      </c>
+      <c r="E500" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F500" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G500" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H500" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I500" s="32" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="501" spans="1:9" ht="45">
+      <c r="A501" s="30" t="s">
+        <v>427</v>
+      </c>
+      <c r="B501" s="31" t="s">
+        <v>484</v>
+      </c>
+      <c r="C501" s="32" t="s">
+        <v>810</v>
+      </c>
+      <c r="D501" s="30" t="s">
+        <v>817</v>
+      </c>
+      <c r="E501" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F501" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G501" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H501" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I501" s="32" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="502" spans="1:9" ht="45">
+      <c r="A502" s="22" t="s">
+        <v>941</v>
+      </c>
+      <c r="B502" s="31" t="s">
+        <v>484</v>
+      </c>
+      <c r="C502" s="20" t="s">
+        <v>940</v>
+      </c>
+      <c r="D502" s="30" t="s">
+        <v>817</v>
+      </c>
+      <c r="E502" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F502" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G502" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H502" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I502" s="32" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="503" spans="1:9" s="47" customFormat="1" ht="45.75" thickBot="1">
+      <c r="A503" s="42" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B503" s="43">
+        <v>6</v>
+      </c>
+      <c r="C503" s="44" t="s">
         <v>1085</v>
       </c>
-      <c r="B495" s="56">
+      <c r="D503" s="45" t="s">
+        <v>817</v>
+      </c>
+      <c r="E503" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F503" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C495" s="57" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D495" s="58" t="s">
-        <v>817</v>
-      </c>
-      <c r="E495" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="F495" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="G495" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="H495" s="58" t="s">
+      <c r="G503" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H503" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I495" s="59" t="s">
+      <c r="I503" s="46" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="496" spans="1:9">
-      <c r="A496" s="3"/>
-      <c r="B496" s="10"/>
-    </row>
-    <row r="497" spans="1:2">
-      <c r="A497" s="3"/>
-      <c r="B497" s="10"/>
+    <row r="504" spans="1:9">
+      <c r="A504" s="3"/>
+      <c r="B504" s="10"/>
+    </row>
+    <row r="505" spans="1:9">
+      <c r="A505" s="3"/>
+      <c r="B505" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -17399,9 +17654,14 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A455:H455 A397:I454 A20:I395 A456:I493">
+  <conditionalFormatting sqref="A463:H463 A405:I462 A464:I501 A20:I403">
     <cfRule type="expression" dxfId="37" priority="91">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -17412,7 +17672,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A455:H455 A397:I454 A20:I395 A456:I493">
+  <conditionalFormatting sqref="A463:H463 A405:I462 A464:I501 A20:I403">
     <cfRule type="expression" dxfId="34" priority="45">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -17423,7 +17683,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F395 F397:F493">
+  <conditionalFormatting sqref="F405:F501 F20:F403">
     <cfRule type="expression" dxfId="31" priority="51">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
@@ -17431,7 +17691,7 @@
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A396:G396 I396">
+  <conditionalFormatting sqref="A404:G404 I404">
     <cfRule type="expression" dxfId="29" priority="36">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -17442,7 +17702,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A396:G396 I396">
+  <conditionalFormatting sqref="A404:G404 I404">
     <cfRule type="expression" dxfId="26" priority="31">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -17453,15 +17713,15 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F396">
+  <conditionalFormatting sqref="F404">
     <cfRule type="expression" dxfId="23" priority="34">
-      <formula>NOT(VLOOKUP(F396,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F404,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="22" priority="35">
-      <formula>(VLOOKUP(F396,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>(VLOOKUP(F404,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H396">
+  <conditionalFormatting sqref="H404">
     <cfRule type="expression" dxfId="21" priority="28">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -17472,7 +17732,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H396">
+  <conditionalFormatting sqref="H404">
     <cfRule type="expression" dxfId="18" priority="25">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -17483,7 +17743,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A494:I494">
+  <conditionalFormatting sqref="A502:I502">
     <cfRule type="expression" dxfId="15" priority="14">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -17494,7 +17754,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A494:I494">
+  <conditionalFormatting sqref="A502:I502">
     <cfRule type="expression" dxfId="12" priority="9">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -17505,15 +17765,15 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F494">
+  <conditionalFormatting sqref="F502">
     <cfRule type="expression" dxfId="9" priority="12">
-      <formula>NOT(VLOOKUP(F494,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F502,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="8" priority="13">
-      <formula>(VLOOKUP(F494,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>(VLOOKUP(F502,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A495:I495">
+  <conditionalFormatting sqref="A503:I503">
     <cfRule type="expression" dxfId="7" priority="6">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
@@ -17524,7 +17784,7 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A495:I495">
+  <conditionalFormatting sqref="A503:I503">
     <cfRule type="expression" dxfId="4" priority="1">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
@@ -17535,29 +17795,29 @@
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F495">
+  <conditionalFormatting sqref="F503">
     <cfRule type="expression" dxfId="1" priority="4">
-      <formula>NOT(VLOOKUP(F495,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>NOT(VLOOKUP(F503,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="5">
-      <formula>(VLOOKUP(F495,$A$12:$C$15,2,FALSE)="In")</formula>
+      <formula>(VLOOKUP(F503,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 F20:F495" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 F20:F503" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 E20:E495" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 E20:E503" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 G20:G495" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 G20:G503" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"In, Out"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H495" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H503" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17567,7 +17827,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B19:B129 B132:B203 B206:B221 B268:B309 B368:B395 B496:B497 B397:B477 B312:B365 B480:B493" numberStoredAsText="1"/>
+    <ignoredError sqref="B19:B129 B132:B203 B206:B221 B268:B309 B391:B403 B504:B505 B405:B485 B366 B488:B501 B312:B363 B375:B388" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
@@ -17586,12 +17846,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -17640,6 +17894,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
@@ -17649,20 +17909,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17675,4 +17921,18 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ExchangeActiveSync/Docs/MS-ASHTTP/MS-ASHTTP_RequirementSpecification.xlsx
+++ b/ExchangeActiveSync/Docs/MS-ASHTTP/MS-ASHTTP_RequirementSpecification.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAE960A-DD17-4521-B4D2-196851D020CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17CE8F7-FB6A-4085-A7C5-5398D29CC4D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4055,21 +4055,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4094,217 +4079,26 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="57">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4643,6 +4437,212 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4772,34 +4772,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I503" tableType="xml" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I503" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
   <autoFilter ref="A19:I503" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="54">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="53">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="52">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="51">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="50">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="49">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="48">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="47">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="46">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -4808,12 +4808,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42" totalsRowBorderDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A12:C15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5199,128 +5199,128 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -5333,12 +5333,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -5351,12 +5351,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -5369,12 +5369,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -5387,60 +5387,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -10116,7 +10116,7 @@
         <v>7</v>
       </c>
       <c r="G205" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H205" s="30" t="s">
         <v>18</v>
@@ -11141,7 +11141,7 @@
         <v>7</v>
       </c>
       <c r="G246" s="30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H246" s="30" t="s">
         <v>18</v>
@@ -17647,6 +17647,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -17654,152 +17659,147 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A463:H463 A405:I462 A464:I501 A20:I403">
-    <cfRule type="expression" dxfId="37" priority="91">
+    <cfRule type="expression" dxfId="56" priority="91">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="92">
+    <cfRule type="expression" dxfId="55" priority="92">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="99">
+    <cfRule type="expression" dxfId="54" priority="99">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A463:H463 A405:I462 A464:I501 A20:I403">
-    <cfRule type="expression" dxfId="34" priority="45">
+    <cfRule type="expression" dxfId="53" priority="45">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="46">
+    <cfRule type="expression" dxfId="52" priority="46">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="47">
+    <cfRule type="expression" dxfId="51" priority="47">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F405:F501 F20:F403">
-    <cfRule type="expression" dxfId="31" priority="51">
+    <cfRule type="expression" dxfId="50" priority="51">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="52">
+    <cfRule type="expression" dxfId="49" priority="52">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A404:G404 I404">
-    <cfRule type="expression" dxfId="29" priority="36">
+    <cfRule type="expression" dxfId="48" priority="36">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="37">
+    <cfRule type="expression" dxfId="47" priority="37">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="38">
+    <cfRule type="expression" dxfId="46" priority="38">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A404:G404 I404">
-    <cfRule type="expression" dxfId="26" priority="31">
+    <cfRule type="expression" dxfId="45" priority="31">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="32">
+    <cfRule type="expression" dxfId="44" priority="32">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="33">
+    <cfRule type="expression" dxfId="43" priority="33">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F404">
-    <cfRule type="expression" dxfId="23" priority="34">
+    <cfRule type="expression" dxfId="42" priority="34">
       <formula>NOT(VLOOKUP(F404,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="35">
+    <cfRule type="expression" dxfId="41" priority="35">
       <formula>(VLOOKUP(F404,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H404">
-    <cfRule type="expression" dxfId="21" priority="28">
+    <cfRule type="expression" dxfId="40" priority="28">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="29">
+    <cfRule type="expression" dxfId="39" priority="29">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="30">
+    <cfRule type="expression" dxfId="38" priority="30">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H404">
-    <cfRule type="expression" dxfId="18" priority="25">
+    <cfRule type="expression" dxfId="37" priority="25">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="26">
+    <cfRule type="expression" dxfId="36" priority="26">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="27">
+    <cfRule type="expression" dxfId="35" priority="27">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A502:I502">
-    <cfRule type="expression" dxfId="15" priority="14">
+    <cfRule type="expression" dxfId="34" priority="14">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="33" priority="15">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="16">
+    <cfRule type="expression" dxfId="32" priority="16">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A502:I502">
-    <cfRule type="expression" dxfId="12" priority="9">
+    <cfRule type="expression" dxfId="31" priority="9">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="10">
+    <cfRule type="expression" dxfId="30" priority="10">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="29" priority="11">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F502">
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="28" priority="12">
       <formula>NOT(VLOOKUP(F502,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="13">
+    <cfRule type="expression" dxfId="27" priority="13">
       <formula>(VLOOKUP(F502,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A503:I503">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="26" priority="6">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="25" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="24" priority="8">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A503:I503">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F503">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="20" priority="4">
       <formula>NOT(VLOOKUP(F503,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="19" priority="5">
       <formula>(VLOOKUP(F503,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17846,6 +17846,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -17894,12 +17900,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
@@ -17909,6 +17909,20 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17921,18 +17935,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ExchangeActiveSync/Docs/MS-ASHTTP/MS-ASHTTP_RequirementSpecification.xlsx
+++ b/ExchangeActiveSync/Docs/MS-ASHTTP/MS-ASHTTP_RequirementSpecification.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17CE8F7-FB6A-4085-A7C5-5398D29CC4D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91940EEE-4B59-4C93-9D81-F541E479526D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <definedName name="ScopeList">Requirements!#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -3641,9 +3642,6 @@
     <t>[In Appendix A: Product Behavior] Implementation can be configured to use different values for the allowed number of changes and the time period. (&lt;9&gt; Section 3.2.5.1.1:  Exchange 2013 , Exchange 2016, and Exchange 2019 can be configured to use different values for the allowed number of changes and the time period.)</t>
   </si>
   <si>
-    <t>[In Appendix A: Product Behavior] Implementation can be configured to block clients for an amount of time other than 14 hours. (&lt;10&gt; Section 3.2.5.1.1:  Exchange 2013 and Exchange 2016 Preview can be configured to block clients for an amount of time other than 14 hours.)</t>
-  </si>
-  <si>
     <t>[In Appendix A: Product Behavior] Implementation does not return MS-ASProtocolVersions values of  16.1,16.0, 14.1 or 14.0. (&lt;11&gt; Section 3.2.5.2: Exchange 2007 SP1 does not return the value "16.1","16.0", "14.1", or "14.0" in the MS-ASProtocolVersions header.)</t>
   </si>
   <si>
@@ -3720,6 +3718,9 @@
   </si>
   <si>
     <t>[In Request headers]The authorization header is required. For more information on the authorization header requirements, see section 2.2.1.1.2.2.</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] Implementation can be configured to block clients for an amount of time other than 14 hours. (&lt;10&gt; Section 3.2.5.1.1:  Exchange 2013, Exchange 2016, and Exchange 2019 can be configured to block clients for an amount of time other than 14 hours.)</t>
   </si>
 </sst>
 </file>
@@ -4055,6 +4056,21 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4078,21 +4094,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5199,128 +5200,128 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -5333,12 +5334,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -5351,12 +5352,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -5369,12 +5370,12 @@
       <c r="C14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -5387,60 +5388,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -14102,13 +14103,13 @@
     </row>
     <row r="365" spans="1:9" ht="30">
       <c r="A365" s="22" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B365" s="39" t="s">
         <v>850</v>
       </c>
       <c r="C365" s="20" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D365" s="38"/>
       <c r="E365" s="34" t="s">
@@ -14158,7 +14159,7 @@
         <v>1072</v>
       </c>
       <c r="C367" s="20" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D367" s="38"/>
       <c r="E367" s="34" t="s">
@@ -14183,7 +14184,7 @@
         <v>1072</v>
       </c>
       <c r="C368" s="20" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D368" s="38"/>
       <c r="E368" s="34" t="s">
@@ -14202,10 +14203,10 @@
     </row>
     <row r="369" spans="1:9">
       <c r="A369" s="22" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B369" s="24" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C369" s="20" t="s">
         <v>1073</v>
@@ -14227,13 +14228,13 @@
     </row>
     <row r="370" spans="1:9" ht="30">
       <c r="A370" s="22" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B370" s="24" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C370" s="20" t="s">
         <v>1092</v>
-      </c>
-      <c r="C370" s="20" t="s">
-        <v>1093</v>
       </c>
       <c r="D370" s="38"/>
       <c r="E370" s="34" t="s">
@@ -14252,13 +14253,13 @@
     </row>
     <row r="371" spans="1:9">
       <c r="A371" s="22" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B371" s="24" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C371" s="20" t="s">
         <v>1094</v>
-      </c>
-      <c r="C371" s="20" t="s">
-        <v>1095</v>
       </c>
       <c r="D371" s="38"/>
       <c r="E371" s="34" t="s">
@@ -14277,13 +14278,13 @@
     </row>
     <row r="372" spans="1:9" ht="30">
       <c r="A372" s="22" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B372" s="24" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C372" s="20" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D372" s="38"/>
       <c r="E372" s="34" t="s">
@@ -14302,13 +14303,13 @@
     </row>
     <row r="373" spans="1:9">
       <c r="A373" s="22" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B373" s="24" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C373" s="20" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D373" s="38"/>
       <c r="E373" s="22" t="s">
@@ -14327,13 +14328,13 @@
     </row>
     <row r="374" spans="1:9">
       <c r="A374" s="22" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B374" s="24" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C374" s="20" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D374" s="38"/>
       <c r="E374" s="22" t="s">
@@ -14727,13 +14728,13 @@
     </row>
     <row r="390" spans="1:9" ht="30">
       <c r="A390" s="22" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B390" s="24" t="s">
         <v>1104</v>
       </c>
-      <c r="B390" s="24" t="s">
+      <c r="C390" s="20" t="s">
         <v>1105</v>
-      </c>
-      <c r="C390" s="20" t="s">
-        <v>1106</v>
       </c>
       <c r="D390" s="38"/>
       <c r="E390" s="30" t="s">
@@ -17380,7 +17381,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="495" spans="1:9" ht="45">
+    <row r="495" spans="1:9" ht="60">
       <c r="A495" s="22" t="s">
         <v>422</v>
       </c>
@@ -17388,7 +17389,7 @@
         <v>484</v>
       </c>
       <c r="C495" s="20" t="s">
-        <v>1080</v>
+        <v>1106</v>
       </c>
       <c r="D495" s="30" t="s">
         <v>816</v>
@@ -17417,7 +17418,7 @@
         <v>484</v>
       </c>
       <c r="C496" s="20" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D496" s="30" t="s">
         <v>817</v>
@@ -17446,7 +17447,7 @@
         <v>484</v>
       </c>
       <c r="C497" s="20" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D497" s="30" t="s">
         <v>817</v>
@@ -17473,7 +17474,7 @@
         <v>484</v>
       </c>
       <c r="C498" s="20" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D498" s="30" t="s">
         <v>817</v>
@@ -17610,13 +17611,13 @@
     </row>
     <row r="503" spans="1:9" s="47" customFormat="1" ht="45.75" thickBot="1">
       <c r="A503" s="42" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B503" s="43">
         <v>6</v>
       </c>
       <c r="C503" s="44" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D503" s="45" t="s">
         <v>817</v>
@@ -17647,11 +17648,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -17659,6 +17655,11 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A463:H463 A405:I462 A464:I501 A20:I403">
@@ -17837,21 +17838,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -17900,10 +17886,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17923,16 +17931,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ExchangeActiveSync/Docs/MS-ASHTTP/MS-ASHTTP_RequirementSpecification.xlsx
+++ b/ExchangeActiveSync/Docs/MS-ASHTTP/MS-ASHTTP_RequirementSpecification.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04B6716-3965-4B91-A729-2118A886248A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C9538E-089B-487A-B439-E2996C01AFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3625,9 +3625,6 @@
     <t>[In Appendix A: Product Behavior] &lt;6&gt; Section 3.1.5.2.3: The set time increases exponentially when multiple 503 errors are received.</t>
   </si>
   <si>
-    <t>[In Appendix A: Product Behavior] Implementation does sometimes include a Retry-After header with HTTP 503 error responses. (&lt;7&gt; Section 3.2.5.1: Exchange 2010 and Exchange 2013 sometimes include a Retry-After header with HTTP 503 error responses.)</t>
-  </si>
-  <si>
     <t>[In Appendix A: Product Behavior] Implementation can be configured to track changes to the User-Agent header, but does not do so by default. (&lt;8&gt; Section 3.2.5.1:  Exchange 2013, Exchange 2016, and Exchange 2019 can be configured to track changes to the User-Agent header can be configured to track changes to the User-Agent header, but does not do so by default.)</t>
   </si>
   <si>
@@ -3719,6 +3716,9 @@
   </si>
   <si>
     <t xml:space="preserve">[In Device ID] The device ID is specified by the device-id-spec ABNF rule portion of the plain text query value. The device ID string MUST NOT contain commas or special characters. </t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] Implementation include a Retry-After header with HTTP 503 error responses. (&lt;7&gt; Section 3.2.5.1: Exchange 2010 and Exchange 2013 include a Retry-After header with HTTP 503 error responses.)</t>
   </si>
 </sst>
 </file>
@@ -4654,10 +4654,25 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I503" tableType="xml" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35" connectionId="1">
-  <autoFilter ref="A19:I503" xr:uid="{00000000-0009-0000-0100-000001000000}">
+  <autoFilter xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" ref="A19:I503" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="2.2.1.1.1.2.3"/>
+        <filter val="6"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <x14:filter val="[In Appendix A: Product Behavior] Implementation can be configured to block clients for an amount of time other than 14 hours. (&lt;10&gt; Section 3.2.5.1.1:  Exchange 2013, Exchange 2016, and Exchange 2019 can be configured to block clients for an amount of time other than 14 hours.)"/>
+            <x14:filter val="[In Appendix A: Product Behavior] Implementation can be configured to track changes to the User-Agent header, but does not do so by default. (&lt;8&gt; Section 3.2.5.1:  Exchange 2013, Exchange 2016, and Exchange 2019 can be configured to track changes to the User-Agent header can be configured to track changes to the User-Agent header, but does not do so by default.)"/>
+            <x14:filter val="[In Appendix A: Product Behavior] Implementation can be configured to use different values for the allowed number of changes and the time period. (&lt;9&gt; Section 3.2.5.1.1:  Exchange 2013 , Exchange 2016, and Exchange 2019 can be configured to use different values for the allowed number of changes and the time period.)"/>
+            <x14:filter val="[In Appendix A: Product Behavior] Implementation does sometimes include a Retry-After header with HTTP 503 error responses. (&lt;7&gt; Section 3.2.5.1: Exchange 2010 and Exchange 2013 sometimes include a Retry-After header with HTTP 503 error responses.)"/>
+          </mc:Choice>
+          <mc:Fallback>
+            <filter val="[In Appendix A: Product Behavior] Implementation does sometimes include a Retry-After header with HTTP 503 error responses. (&lt;7&gt; Section 3.2.5.1: Exchange 2010 and Exchange 2013 sometimes include a Retry-After header with HTTP 503 error responses.)"/>
+          </mc:Fallback>
+        </mc:AlternateContent>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -4996,8 +5011,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C509" sqref="C509"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C491" sqref="C491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -5041,13 +5056,13 @@
         <v>25</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="9">
-        <v>45398</v>
+        <v>45433</v>
       </c>
       <c r="G3" s="22"/>
       <c r="J3" s="4"/>
@@ -8901,7 +8916,7 @@
       </c>
       <c r="I162" s="28"/>
     </row>
-    <row r="163" spans="1:9" ht="29">
+    <row r="163" spans="1:9" ht="29" hidden="1">
       <c r="A163" s="26" t="s">
         <v>184</v>
       </c>
@@ -8909,7 +8924,7 @@
         <v>441</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D163" s="26"/>
       <c r="E163" s="26" t="s">
@@ -8926,7 +8941,7 @@
       </c>
       <c r="I163" s="28"/>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" hidden="1">
       <c r="A164" s="26" t="s">
         <v>185</v>
       </c>
@@ -8951,7 +8966,7 @@
       </c>
       <c r="I164" s="28"/>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" hidden="1">
       <c r="A165" s="26" t="s">
         <v>186</v>
       </c>
@@ -8976,7 +8991,7 @@
       </c>
       <c r="I165" s="28"/>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" hidden="1">
       <c r="A166" s="26" t="s">
         <v>187</v>
       </c>
@@ -13955,13 +13970,13 @@
     </row>
     <row r="365" spans="1:9" ht="29" hidden="1">
       <c r="A365" s="18" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B365" s="35" t="s">
         <v>849</v>
       </c>
       <c r="C365" s="17" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D365" s="34"/>
       <c r="E365" s="30" t="s">
@@ -14011,7 +14026,7 @@
         <v>1070</v>
       </c>
       <c r="C367" s="17" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D367" s="34"/>
       <c r="E367" s="30" t="s">
@@ -14036,7 +14051,7 @@
         <v>1070</v>
       </c>
       <c r="C368" s="17" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D368" s="34"/>
       <c r="E368" s="30" t="s">
@@ -14055,10 +14070,10 @@
     </row>
     <row r="369" spans="1:9" hidden="1">
       <c r="A369" s="18" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B369" s="20" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C369" s="17" t="s">
         <v>1071</v>
@@ -14080,13 +14095,13 @@
     </row>
     <row r="370" spans="1:9" hidden="1">
       <c r="A370" s="18" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B370" s="20" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C370" s="17" t="s">
         <v>1089</v>
-      </c>
-      <c r="C370" s="17" t="s">
-        <v>1090</v>
       </c>
       <c r="D370" s="34"/>
       <c r="E370" s="30" t="s">
@@ -14105,13 +14120,13 @@
     </row>
     <row r="371" spans="1:9" hidden="1">
       <c r="A371" s="18" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B371" s="20" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C371" s="17" t="s">
         <v>1091</v>
-      </c>
-      <c r="C371" s="17" t="s">
-        <v>1092</v>
       </c>
       <c r="D371" s="34"/>
       <c r="E371" s="30" t="s">
@@ -14130,13 +14145,13 @@
     </row>
     <row r="372" spans="1:9" hidden="1">
       <c r="A372" s="18" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B372" s="20" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C372" s="17" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D372" s="34"/>
       <c r="E372" s="30" t="s">
@@ -14155,13 +14170,13 @@
     </row>
     <row r="373" spans="1:9" hidden="1">
       <c r="A373" s="18" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B373" s="20" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C373" s="17" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D373" s="34"/>
       <c r="E373" s="18" t="s">
@@ -14180,13 +14195,13 @@
     </row>
     <row r="374" spans="1:9" hidden="1">
       <c r="A374" s="18" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B374" s="20" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C374" s="17" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D374" s="34"/>
       <c r="E374" s="18" t="s">
@@ -14580,13 +14595,13 @@
     </row>
     <row r="390" spans="1:9" ht="29" hidden="1">
       <c r="A390" s="18" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B390" s="20" t="s">
         <v>1101</v>
       </c>
-      <c r="B390" s="20" t="s">
+      <c r="C390" s="17" t="s">
         <v>1102</v>
-      </c>
-      <c r="C390" s="17" t="s">
-        <v>1103</v>
       </c>
       <c r="D390" s="34"/>
       <c r="E390" s="26" t="s">
@@ -17127,7 +17142,7 @@
       </c>
       <c r="I490" s="28"/>
     </row>
-    <row r="491" spans="1:9" ht="43.5" hidden="1">
+    <row r="491" spans="1:9" ht="43.5">
       <c r="A491" s="26" t="s">
         <v>418</v>
       </c>
@@ -17135,7 +17150,7 @@
         <v>484</v>
       </c>
       <c r="C491" s="17" t="s">
-        <v>1075</v>
+        <v>1106</v>
       </c>
       <c r="D491" s="26"/>
       <c r="E491" s="26" t="s">
@@ -17177,7 +17192,7 @@
       </c>
       <c r="I492" s="28"/>
     </row>
-    <row r="493" spans="1:9" ht="58" hidden="1">
+    <row r="493" spans="1:9" ht="58">
       <c r="A493" s="26" t="s">
         <v>420</v>
       </c>
@@ -17185,7 +17200,7 @@
         <v>484</v>
       </c>
       <c r="C493" s="17" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D493" s="26" t="s">
         <v>813</v>
@@ -17204,7 +17219,7 @@
       </c>
       <c r="I493" s="28"/>
     </row>
-    <row r="494" spans="1:9" ht="58" hidden="1">
+    <row r="494" spans="1:9" ht="58">
       <c r="A494" s="26" t="s">
         <v>421</v>
       </c>
@@ -17212,7 +17227,7 @@
         <v>484</v>
       </c>
       <c r="C494" s="17" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D494" s="26" t="s">
         <v>814</v>
@@ -17233,7 +17248,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="495" spans="1:9" ht="43.5" hidden="1">
+    <row r="495" spans="1:9" ht="43.5">
       <c r="A495" s="18" t="s">
         <v>422</v>
       </c>
@@ -17241,7 +17256,7 @@
         <v>484</v>
       </c>
       <c r="C495" s="17" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D495" s="26" t="s">
         <v>815</v>
@@ -17270,7 +17285,7 @@
         <v>484</v>
       </c>
       <c r="C496" s="17" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D496" s="26" t="s">
         <v>816</v>
@@ -17299,7 +17314,7 @@
         <v>484</v>
       </c>
       <c r="C497" s="17" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D497" s="26" t="s">
         <v>816</v>
@@ -17326,7 +17341,7 @@
         <v>484</v>
       </c>
       <c r="C498" s="17" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D498" s="26" t="s">
         <v>816</v>
@@ -17463,13 +17478,13 @@
     </row>
     <row r="503" spans="1:9" s="43" customFormat="1" ht="44" hidden="1" thickBot="1">
       <c r="A503" s="38" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B503" s="39">
         <v>6</v>
       </c>
       <c r="C503" s="40" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D503" s="41" t="s">
         <v>816</v>
@@ -17513,31 +17528,31 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A404:G404 I404">
-    <cfRule type="expression" dxfId="17" priority="32">
+    <cfRule type="expression" dxfId="17" priority="31">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="32">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="31">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    <cfRule type="expression" dxfId="15" priority="33">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="36">
+    <cfRule type="expression" dxfId="14" priority="36">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="33">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:I403 A405:I462 A463:H463">
-    <cfRule type="expression" dxfId="13" priority="91">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    <cfRule type="expression" dxfId="13" priority="45">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="47">
+    <cfRule type="expression" dxfId="12" priority="46">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="47">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="46">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="45">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    <cfRule type="expression" dxfId="10" priority="91">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A464:I503">
@@ -17563,17 +17578,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H404">
-    <cfRule type="expression" dxfId="3" priority="27">
+    <cfRule type="expression" dxfId="3" priority="25">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="26">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="27">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="28">
+    <cfRule type="expression" dxfId="0" priority="28">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="25">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="26">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
